--- a/photo_links.xlsx
+++ b/photo_links.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Photo Links" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Photo Links" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,660 +446,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0026-2</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>470.jpg</t>
+          <t>2504.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-2/470.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/005/2504.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\0026-2\470_image_0026-2.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\005\2504_image_005.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0026-2</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>471.jpg</t>
+          <t>2505.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-2/471.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/005/2505.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\0026-2\471_image_0026-2.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\005\2505_image_005.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0026-2</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>472.jpg</t>
+          <t>2506.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-2/472.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/005/2506.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\0026-2\472_image_0026-2.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\005\2506_image_005.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0026-2</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>473.jpg</t>
+          <t>2507.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-2/473.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/005/2507.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\0026-2\473_image_0026-2.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\005\2507_image_005.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0026-2</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>474.jpg</t>
+          <t>2508.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-2/474.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/005/2508.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\0026-2\474_image_0026-2.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\005\2508_image_005.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0026-3</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4648.jpg</t>
+          <t>2509.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-3/4648.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/005/2509.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\0026-3\4648_image_0026-3.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\005\2509_image_005.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0026-3</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4649.jpg</t>
+          <t>2510.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-3/4649.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/005/2510.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\0026-3\4649_image_0026-3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>0026-3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4650.jpg</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-3/4650.jpg</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\0026-3\4650_image_0026-3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>0026-3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4651.jpg</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-3/4651.jpg</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\0026-3\4651_image_0026-3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>0026-3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4652.jpg</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-3/4652.jpg</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\0026-3\4652_image_0026-3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>0026-3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>4653.jpg</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/0026-3/4653.jpg</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\0026-3\4653_image_0026-3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2504.jpg</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2504.jpg</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2504_image_005.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2505.jpg</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2505.jpg</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2505_image_005.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2506.jpg</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2506.jpg</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2506_image_005.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2507.jpg</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2507.jpg</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2507_image_005.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2508.jpg</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2508.jpg</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2508_image_005.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2509.jpg</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2509.jpg</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2509_image_005.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2510.jpg</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2510.jpg</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>C:/Users/Asus/Desktop/21212\005\2510_image_005.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>009-2</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1144.jpg</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-2/1144.jpg</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-2\1144_image_009-2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>009-2</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1145.jpg</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-2/1145.jpg</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-2\1145_image_009-2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>009-2</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1146.jpg</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-2/1146.jpg</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-2\1146_image_009-2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>009-2</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1147.jpg</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-2/1147.jpg</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-2\1147_image_009-2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>009-2</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1148.jpg</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-2/1148.jpg</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-2\1148_image_009-2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>009-2</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1149.jpg</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-2/1149.jpg</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-2\1149_image_009-2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>009-4</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1769.jpg</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-4/1769.jpg</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-4\1769_image_009-4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>009-4</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1770.jpg</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-4/1770.jpg</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-4\1770_image_009-4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>009-4</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1771.jpg</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-4/1771.jpg</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-4\1771_image_009-4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>009-4</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1772.jpg</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-4/1772.jpg</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-4\1772_image_009-4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>009-4</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1773.jpg</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-4/1773.jpg</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-4\1773_image_009-4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>009-4</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1774.jpg</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/009-4/1774.jpg</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/21212\009-4\1774_image_009-4.jpg</t>
         </is>
       </c>
     </row>

--- a/photo_links.xlsx
+++ b/photo_links.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2504_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212/005\2504_image_005.jpg</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2505_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212/005\2505_image_005.jpg</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2506_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212/005\2506_image_005.jpg</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2507_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212/005\2507_image_005.jpg</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2508_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212/005\2508_image_005.jpg</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2509_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212/005\2509_image_005.jpg</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2510_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212/005\2510_image_005.jpg</t>
         </is>
       </c>
     </row>

--- a/photo_links.xlsx
+++ b/photo_links.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,16 @@
           <t>Local file</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Width</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,8 +471,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212/005\2504_image_005.jpg</t>
-        </is>
+          <t>C:/Users/Asus/Desktop/21212\005\2504_image_005.jpg</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="3">
@@ -483,8 +499,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212/005\2505_image_005.jpg</t>
-        </is>
+          <t>C:/Users/Asus/Desktop/21212\005\2505_image_005.jpg</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>900</v>
+      </c>
+      <c r="F3" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="4">
@@ -505,8 +527,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212/005\2506_image_005.jpg</t>
-        </is>
+          <t>C:/Users/Asus/Desktop/21212\005\2506_image_005.jpg</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>900</v>
+      </c>
+      <c r="F4" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="5">
@@ -527,8 +555,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212/005\2507_image_005.jpg</t>
-        </is>
+          <t>C:/Users/Asus/Desktop/21212\005\2507_image_005.jpg</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>900</v>
+      </c>
+      <c r="F5" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="6">
@@ -549,8 +583,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212/005\2508_image_005.jpg</t>
-        </is>
+          <t>C:/Users/Asus/Desktop/21212\005\2508_image_005.jpg</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>900</v>
+      </c>
+      <c r="F6" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="7">
@@ -571,8 +611,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212/005\2509_image_005.jpg</t>
-        </is>
+          <t>C:/Users/Asus/Desktop/21212\005\2509_image_005.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>900</v>
+      </c>
+      <c r="F7" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="8">
@@ -593,8 +639,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212/005\2510_image_005.jpg</t>
-        </is>
+          <t>C:/Users/Asus/Desktop/21212\005\2510_image_005.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>900</v>
+      </c>
+      <c r="F8" t="n">
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/photo_links.xlsx
+++ b/photo_links.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Photo Links" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,39 +439,39 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Local file</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Width</t>
+          <t>W</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>7631-grey</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2504.jpg</t>
+          <t>5081.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2504.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/5081.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2504_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\7631-grey\5081_image_7631-grey.jpg</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -484,22 +484,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>7631-grey</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2505.jpg</t>
+          <t>5082.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2505.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/5082.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2505_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\7631-grey\5082_image_7631-grey.jpg</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -512,22 +512,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>7631-grey</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2506.jpg</t>
+          <t>5083.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2506.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/5083.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2506_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\7631-grey\5083_image_7631-grey.jpg</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -540,50 +540,50 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>7631-grey</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2507.jpg</t>
+          <t>5084.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2507.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/5084.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2507_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\7631-grey\5084_image_7631-grey.jpg</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>900</v>
       </c>
       <c r="F5" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>7631-grey</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2508.jpg</t>
+          <t>5085.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2508.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/5085.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2508_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\7631-grey\5085_image_7631-grey.jpg</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -596,22 +596,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>7631-grey</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2509.jpg</t>
+          <t>5086.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2509.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/5086.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2509_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\7631-grey\5086_image_7631-grey.jpg</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -624,28 +624,616 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>7631-grey</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2510.jpg</t>
+          <t>5087.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/005/2510.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/5087.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\005\2510_image_005.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\7631-grey\5087_image_7631-grey.jpg</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>900</v>
       </c>
       <c r="F8" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7631-grey</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5088.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/5088.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7631-grey\5088_image_7631-grey.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>900</v>
+      </c>
+      <c r="F9" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7631-grey</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5089.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/5089.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7631-grey\5089_image_7631-grey.jpg</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>900</v>
+      </c>
+      <c r="F10" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7631-grey</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5090.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7631-grey/5090.jpg</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7631-grey\5090_image_7631-grey.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>900</v>
+      </c>
+      <c r="F11" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>7683-black</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4183.jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/4183.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7683-black\4183_image_7683-black.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>900</v>
+      </c>
+      <c r="F12" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7683-black</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4185.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/4185.jpg</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7683-black\4185_image_7683-black.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>900</v>
+      </c>
+      <c r="F13" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7683-black</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4186.jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/4186.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7683-black\4186_image_7683-black.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>900</v>
+      </c>
+      <c r="F14" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7683-black</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4187.jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/4187.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7683-black\4187_image_7683-black.jpg</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>900</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7683-black</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4188.jpg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/4188.jpg</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7683-black\4188_image_7683-black.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>900</v>
+      </c>
+      <c r="F16" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>7683-black</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4189.jpg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/4189.jpg</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7683-black\4189_image_7683-black.jpg</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>900</v>
+      </c>
+      <c r="F17" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7683-black</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4190.jpg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/4190.jpg</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7683-black\4190_image_7683-black.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>900</v>
+      </c>
+      <c r="F18" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7683-black</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4191.jpg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/4191.jpg</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7683-black\4191_image_7683-black.jpg</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>900</v>
+      </c>
+      <c r="F19" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7683-black</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4192.jpg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7683-black/4192.jpg</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7683-black\4192_image_7683-black.jpg</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>900</v>
+      </c>
+      <c r="F20" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>7687-black</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1044.jpg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/1044.jpg</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7687-black\1044_image_7687-black.jpg</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>900</v>
+      </c>
+      <c r="F21" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>7687-black</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1046.jpg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/1046.jpg</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7687-black\1046_image_7687-black.jpg</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>900</v>
+      </c>
+      <c r="F22" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7687-black</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1047.jpg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/1047.jpg</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7687-black\1047_image_7687-black.jpg</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>900</v>
+      </c>
+      <c r="F23" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7687-black</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1048.jpg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/1048.jpg</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7687-black\1048_image_7687-black.jpg</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>900</v>
+      </c>
+      <c r="F24" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7687-black</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1049.jpg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/1049.jpg</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7687-black\1049_image_7687-black.jpg</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>900</v>
+      </c>
+      <c r="F25" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7687-black</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1050.jpg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/1050.jpg</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7687-black\1050_image_7687-black.jpg</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>900</v>
+      </c>
+      <c r="F26" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>7687-black</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1051.jpg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/1051.jpg</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7687-black\1051_image_7687-black.jpg</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>900</v>
+      </c>
+      <c r="F27" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7687-black</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1052.jpg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/1052.jpg</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7687-black\1052_image_7687-black.jpg</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>900</v>
+      </c>
+      <c r="F28" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>7687-black</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1053.jpg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/7687-black/1053.jpg</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/21212\7687-black\1053_image_7687-black.jpg</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>900</v>
+      </c>
+      <c r="F29" t="n">
         <v>900</v>
       </c>
     </row>

--- a/photo_links.xlsx
+++ b/photo_links.xlsx
@@ -18124,7 +18124,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>8062-green-pixel_1</t>
+          <t>8062-green-pixel</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -18134,12 +18134,12 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel_1/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/1.jpg</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\8062-green-pixel\1_image_8062-green-pixel_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\8062-green-pixel\1_image_8062-green-pixel.jpg</t>
         </is>
       </c>
       <c r="E633" t="n">
@@ -18180,29 +18180,29 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>8062-green-pixel_1</t>
+          <t>8062-green-pixel</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel_1/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/3.jpg</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\8062-green-pixel\2_image_8062-green-pixel_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\8062-green-pixel\3_image_8062-green-pixel.jpg</t>
         </is>
       </c>
       <c r="E635" t="n">
-        <v>900</v>
+        <v>829</v>
       </c>
       <c r="F635" t="n">
-        <v>900</v>
+        <v>757</v>
       </c>
     </row>
     <row r="636">
@@ -18213,24 +18213,24 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/4.jpg</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\8062-green-pixel\3_image_8062-green-pixel.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\8062-green-pixel\4_image_8062-green-pixel.jpg</t>
         </is>
       </c>
       <c r="E636" t="n">
-        <v>829</v>
+        <v>561</v>
       </c>
       <c r="F636" t="n">
-        <v>757</v>
+        <v>839</v>
       </c>
     </row>
     <row r="637">
@@ -18241,24 +18241,24 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/5.jpg</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\8062-green-pixel\4_image_8062-green-pixel.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\8062-green-pixel\5_image_8062-green-pixel.jpg</t>
         </is>
       </c>
       <c r="E637" t="n">
-        <v>561</v>
+        <v>900</v>
       </c>
       <c r="F637" t="n">
-        <v>839</v>
+        <v>900</v>
       </c>
     </row>
     <row r="638">
@@ -18269,17 +18269,17 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/8062-green-pixel/6.jpg</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/21212\8062-green-pixel\5_image_8062-green-pixel.jpg</t>
+          <t>C:/Users/Asus/Desktop/21212\8062-green-pixel\6_image_8062-green-pixel.jpg</t>
         </is>
       </c>
       <c r="E638" t="n">

--- a/photo_links.xlsx
+++ b/photo_links.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -932,7 +932,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>125v1genav37-black</t>
+          <t>14669</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -942,47 +942,47 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/125v1genav37-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/1.jpg</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\125v1genav37-black\001_image_125v1genav37-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\001_image_14669.jpeg</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>800</v>
+        <v>872</v>
       </c>
       <c r="F19" t="n">
-        <v>800</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>125v1genav37-black</t>
+          <t>14669</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>14.jpg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/125v1genav37-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/14.jpg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\125v1genav37-black\2_image_125v1genav37-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\014_image_14669.jpeg</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F20" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21">
@@ -993,24 +993,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/10.jpg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\001_image_14669.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\10_image_14669.jpeg</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>872</v>
+        <v>1200</v>
       </c>
       <c r="F21" t="n">
-        <v>671</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="22">
@@ -1021,17 +1021,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/14.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/11.jpg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\014_image_14669.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\11_image_14669.jpeg</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>12.jpg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/12.jpg</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\10_image_14669.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\12_image_14669.jpeg</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1077,17 +1077,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>13.jpg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/13.jpg</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\11_image_14669.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\13_image_14669.jpeg</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1105,24 +1105,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/12.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/2.jpg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\12_image_14669.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\2_image_14669.jpeg</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1200</v>
+        <v>595</v>
       </c>
       <c r="F25" t="n">
-        <v>1200</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26">
@@ -1133,17 +1133,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/13.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/3.jpg</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\13_image_14669.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\3_image_14669.jpeg</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1161,24 +1161,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/4.jpg</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\2_image_14669.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\4_image_14669.jpg</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>595</v>
+        <v>1200</v>
       </c>
       <c r="F27" t="n">
-        <v>691</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="28">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/5.jpg</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\3_image_14669.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\5_image_14669.jpg</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1217,24 +1217,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/7.jpg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\4_image_14669.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\7_image_14669.jpeg</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1200</v>
+        <v>876</v>
       </c>
       <c r="F29" t="n">
-        <v>1200</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30">
@@ -1245,24 +1245,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/8.jpg</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\5_image_14669.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\8_image_14669.jpeg</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1200</v>
+        <v>579</v>
       </c>
       <c r="F30" t="n">
-        <v>1200</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31">
@@ -1273,80 +1273,80 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/14669/9.jpg</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\7_image_14669.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\9_image_14669.jpeg</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>876</v>
+        <v>750</v>
       </c>
       <c r="F31" t="n">
-        <v>686</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>14669</t>
+          <t>20658</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20658/1.jpg</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\8_image_14669.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\001_image_20658.jpeg</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>579</v>
+        <v>1200</v>
       </c>
       <c r="F32" t="n">
-        <v>339</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>14669</t>
+          <t>20658</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/14669/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20658/10.jpg</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\14669\9_image_14669.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\10_image_20658.jpeg</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="F33" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="34">
@@ -1357,17 +1357,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20658/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20658/2.jpg</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\001_image_20658.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\2_image_20658.jpeg</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1385,17 +1385,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20658/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20658/3.jpg</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\10_image_20658.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\3_image_20658.jpg</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20658/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20658/4.jpg</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\2_image_20658.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\4_image_20658.jpg</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1441,17 +1441,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20658/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20658/5.jpg</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\3_image_20658.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\5_image_20658.jpeg</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20658/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20658/6.jpg</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\4_image_20658.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\6_image_20658.jpeg</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1497,17 +1497,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20658/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20658/7.jpg</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\5_image_20658.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\7_image_20658.jpeg</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1525,17 +1525,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20658/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20658/8.jpg</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\6_image_20658.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\8_image_20658.jpeg</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1553,17 +1553,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20658/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20658/9.jpg</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\7_image_20658.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\9_image_20658.jpeg</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1576,57 +1576,57 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20658</t>
+          <t>532660</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20658/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/532660/1.jpg</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\8_image_20658.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\532660\001_image_532660.jpg</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1200</v>
+        <v>970</v>
       </c>
       <c r="F42" t="n">
-        <v>1200</v>
+        <v>970</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20658</t>
+          <t>532660</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20658/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/532660/2.jpg</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\20658\9_image_20658.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\532660\2_image_532660.jpg</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1200</v>
+        <v>970</v>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>970</v>
       </c>
     </row>
     <row r="44">
@@ -1637,17 +1637,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/532660/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/532660/3.jpg</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\532660\001_image_532660.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\532660\3_image_532660.jpg</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1665,17 +1665,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/532660/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/532660/4.jpg</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\532660\2_image_532660.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\532660\4_image_532660.jpg</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1693,17 +1693,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/532660/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/532660/5.jpg</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\532660\3_image_532660.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\532660\5_image_532660.jpg</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1716,85 +1716,85 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>532660</t>
+          <t>84045 BRN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/532660/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/84045 BRN/1.jpg</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\532660\4_image_532660.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\84045 BRN\001_image_84045 BRN.jpg</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>970</v>
+        <v>1200</v>
       </c>
       <c r="F47" t="n">
-        <v>970</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>532660</t>
+          <t>BN-BAG-33-iz</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/532660/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/1.jpg</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\532660\5_image_532660.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\1_image_BN-BAG-33-iz.jpg</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>970</v>
+        <v>800</v>
       </c>
       <c r="F48" t="n">
-        <v>970</v>
+        <v>800</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>84045 BRN</t>
+          <t>BN-BAG-33-iz</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/84045 BRN/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/2.jpg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\84045 BRN\001_image_84045 BRN.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\2_image_BN-BAG-33-iz.jpg</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="50">
@@ -1805,17 +1805,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/3.jpg</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\1_image_BN-BAG-33-iz.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\3_image_BN-BAG-33-iz.jpg</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/4.jpg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\2_image_BN-BAG-33-iz.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\4_image_BN-BAG-33-iz.jpg</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1861,17 +1861,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/5.jpg</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\3_image_BN-BAG-33-iz.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\5_image_BN-BAG-33-iz.jpg</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1889,17 +1889,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/6.jpg</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\4_image_BN-BAG-33-iz.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\6_image_BN-BAG-33-iz.jpg</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1917,17 +1917,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/7.jpg</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\5_image_BN-BAG-33-iz.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\7_image_BN-BAG-33-iz.jpg</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1945,17 +1945,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/8.jpg</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\6_image_BN-BAG-33-iz.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\8_image_BN-BAG-33-iz.jpg</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1973,17 +1973,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/9.jpg</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\7_image_BN-BAG-33-iz.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\9_image_BN-BAG-33-iz.jpg</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1996,22 +1996,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BN-BAG-33-iz</t>
+          <t>BN-KLATCH-3-g-kr</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/10.jpg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\8_image_BN-BAG-33-iz.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\10_image_BN-KLATCH-3-g-kr.jpg</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2024,22 +2024,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BN-BAG-33-iz</t>
+          <t>BN-KLATCH-3-g-kr</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-BAG-33-iz/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/1.jpg</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-BAG-33-iz\9_image_BN-BAG-33-iz.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\1_image_BN-KLATCH-3-g-kr.jpg</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/2.jpg</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\10_image_BN-KLATCH-3-g-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\2_image_BN-KLATCH-3-g-kr.jpg</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2085,17 +2085,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/3.jpg</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\1_image_BN-KLATCH-3-g-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\3_image_BN-KLATCH-3-g-kr.jpg</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2113,17 +2113,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/4.jpg</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\2_image_BN-KLATCH-3-g-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\4_image_BN-KLATCH-3-g-kr.jpg</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/5.jpg</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\3_image_BN-KLATCH-3-g-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\5_image_BN-KLATCH-3-g-kr.jpg</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2169,17 +2169,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/6.jpg</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\4_image_BN-KLATCH-3-g-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\6_image_BN-KLATCH-3-g-kr.jpg</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2197,17 +2197,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/7.jpg</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\5_image_BN-KLATCH-3-g-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\7_image_BN-KLATCH-3-g-kr.jpg</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2225,17 +2225,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/8.jpg</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\6_image_BN-KLATCH-3-g-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\8_image_BN-KLATCH-3-g-kr.jpg</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2253,17 +2253,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/9.jpg</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\7_image_BN-KLATCH-3-g-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\9_image_BN-KLATCH-3-g-kr.jpg</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2276,22 +2276,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BN-KLATCH-3-g-kr</t>
+          <t>BN-OP-7-3-k-kr</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/10.jpg</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\8_image_BN-KLATCH-3-g-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\10_image_BN-OP-7-3-k-kr.jpg</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2304,22 +2304,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BN-KLATCH-3-g-kr</t>
+          <t>BN-OP-7-3-k-kr</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-KLATCH-3-g-kr/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/1.jpg</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-KLATCH-3-g-kr\9_image_BN-KLATCH-3-g-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\1_image_BN-OP-7-3-k-kr.jpg</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2337,17 +2337,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/2.jpg</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\10_image_BN-OP-7-3-k-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\2_image_BN-OP-7-3-k-kr.jpg</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2365,17 +2365,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/3.jpg</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\1_image_BN-OP-7-3-k-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\3_image_BN-OP-7-3-k-kr.jpg</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2393,17 +2393,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/4.jpg</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\2_image_BN-OP-7-3-k-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\4_image_BN-OP-7-3-k-kr.jpg</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2421,17 +2421,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/5.jpg</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\3_image_BN-OP-7-3-k-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\5_image_BN-OP-7-3-k-kr.jpg</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2449,17 +2449,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/6.jpg</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\4_image_BN-OP-7-3-k-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\6_image_BN-OP-7-3-k-kr.jpg</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2477,17 +2477,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/7.jpg</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\5_image_BN-OP-7-3-k-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\7_image_BN-OP-7-3-k-kr.jpg</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2505,17 +2505,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/8.jpg</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\6_image_BN-OP-7-3-k-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\8_image_BN-OP-7-3-k-kr.jpg</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2533,17 +2533,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/9.jpg</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\7_image_BN-OP-7-3-k-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\9_image_BN-OP-7-3-k-kr.jpg</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2556,22 +2556,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BN-OP-7-3-k-kr</t>
+          <t>Cv1zk-153br-brown</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Cv1zk-153br-brown/1.jpg</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\8_image_BN-OP-7-3-k-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Cv1zk-153br-brown\1_image_Cv1zk-153br-brown.jpg</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2584,22 +2584,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BN-OP-7-3-k-kr</t>
+          <t>Cv1zk-153br-brown</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-OP-7-3-k-kr/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Cv1zk-153br-brown/2.jpg</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\BN-OP-7-3-k-kr\9_image_BN-OP-7-3-k-kr.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Cv1zk-153br-brown\2_image_Cv1zk-153br-brown.jpg</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2612,7 +2612,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cv1zk-153br-brown</t>
+          <t>K10122bl-black</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2622,12 +2622,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/Cv1zk-153br-brown/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Cv1zk-153br-brown\1_image_Cv1zk-153br-brown.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\1_image_K10122bl-black.jpg</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2640,7 +2640,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cv1zk-153br-brown</t>
+          <t>K10122bl-black</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2650,12 +2650,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/Cv1zk-153br-brown/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Cv1zk-153br-brown\2_image_Cv1zk-153br-brown.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\2_image_K10122bl-black.jpg</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2673,17 +2673,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\1_image_K10122bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\3_image_K10122bl-black.jpg</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2701,17 +2701,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\2_image_K10122bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\4_image_K10122bl-black.jpg</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2729,17 +2729,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\3_image_K10122bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\5_image_K10122bl-black.jpg</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2757,17 +2757,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\4_image_K10122bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\6_image_K10122bl-black.jpg</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2780,22 +2780,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>K10122bl-black</t>
+          <t>K17859-black</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K17859-black/1.jpg</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\5_image_K10122bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\1_image_K17859-black.jpg</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2808,22 +2808,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>K10122bl-black</t>
+          <t>K17859-black</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K10122bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K17859-black/2.jpg</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K10122bl-black\6_image_K10122bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\2_image_K17859-black.jpg</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2841,17 +2841,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K17859-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K17859-black/3.jpg</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\1_image_K17859-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\3_image_K17859-black.jpg</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2869,17 +2869,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K17859-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K17859-black/4.jpg</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\2_image_K17859-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\4_image_K17859-black.jpg</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2897,17 +2897,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K17859-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K17859-black/5.jpg</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\3_image_K17859-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\5_image_K17859-black.jpg</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2925,17 +2925,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K17859-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K17859-black/6.jpg</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\4_image_K17859-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\6_image_K17859-black.jpg</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2953,17 +2953,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K17859-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K17859-black/7.jpg</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\5_image_K17859-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\7_image_K17859-black.jpg</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2981,17 +2981,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K17859-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K17859-black/8.jpg</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\6_image_K17859-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\8_image_K17859-black.jpg</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3004,22 +3004,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>K17859-black</t>
+          <t>K18123bl-black</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K17859-black/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K18123bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\7_image_K17859-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K18123bl-black\1_image_K18123bl-black.jpg</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3032,22 +3032,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>K17859-black</t>
+          <t>K18123bl-black</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K17859-black/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K18123bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K17859-black\8_image_K17859-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K18123bl-black\2_image_K18123bl-black.jpg</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3065,17 +3065,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K18123bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K18123bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K18123bl-black\1_image_K18123bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K18123bl-black\3_image_K18123bl-black.jpg</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -3093,17 +3093,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K18123bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K18123bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K18123bl-black\2_image_K18123bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K18123bl-black\4_image_K18123bl-black.jpg</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -3121,17 +3121,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K18123bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K18123bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K18123bl-black\3_image_K18123bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K18123bl-black\5_image_K18123bl-black.jpg</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3144,57 +3144,57 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>K18123bl-black</t>
+          <t>K49 CHESTNUT</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K18123bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/1.jpg</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K18123bl-black\4_image_K18123bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\1_image_K49 CHESTNUT.jpg</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F98" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>K18123bl-black</t>
+          <t>K49 CHESTNUT</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K18123bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/2.jpg</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K18123bl-black\5_image_K18123bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\2_image_K49 CHESTNUT.jpg</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F99" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100">
@@ -3205,17 +3205,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/3.jpg</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\1_image_K49 CHESTNUT.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\3_image_K49 CHESTNUT.jpg</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3233,17 +3233,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/4.jpg</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\2_image_K49 CHESTNUT.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\4_image_K49 CHESTNUT.jpg</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3261,17 +3261,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/5.jpg</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\3_image_K49 CHESTNUT.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\5_image_K49 CHESTNUT.jpg</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3289,17 +3289,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/6.jpg</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\4_image_K49 CHESTNUT.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\6_image_K49 CHESTNUT.jpg</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3317,80 +3317,80 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/7.jpg</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\5_image_K49 CHESTNUT.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\7_image_K49 CHESTNUT.jpg</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>K49 CHESTNUT</t>
+          <t>L87202-F0</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87202-F0/1.jpg</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\6_image_K49 CHESTNUT.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\1_image_L87202-F0.jpg</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F105" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>K49 CHESTNUT</t>
+          <t>L87202-F0</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K49 CHESTNUT/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87202-F0/2.jpg</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\K49 CHESTNUT\7_image_K49 CHESTNUT.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\2_image_L87202-F0.jpg</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="107">
@@ -3401,17 +3401,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87202-F0/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87202-F0/3.jpg</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\1_image_L87202-F0.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\3_image_L87202-F0.jpg</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3429,17 +3429,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87202-F0/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87202-F0/4.jpg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\2_image_L87202-F0.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\4_image_L87202-F0.jpg</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -3457,17 +3457,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87202-F0/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87202-F0/5.jpg</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\3_image_L87202-F0.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\5_image_L87202-F0.jpg</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -3485,17 +3485,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87202-F0/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87202-F0/6.jpg</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\4_image_L87202-F0.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\6_image_L87202-F0.jpg</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3513,17 +3513,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87202-F0/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87202-F0/7.jpg</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\5_image_L87202-F0.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\7_image_L87202-F0.jpg</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3541,17 +3541,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87202-F0/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87202-F0/8.jpg</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\6_image_L87202-F0.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\8_image_L87202-F0.jpg</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -3569,17 +3569,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87202-F0/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87202-F0/9.jpg</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\7_image_L87202-F0.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\9_image_L87202-F0.jpg</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3592,22 +3592,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>L87202-F0</t>
+          <t>L87606-1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87202-F0/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/10.jpg</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\8_image_L87202-F0.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\10_image_L87606-1.jpg</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3620,22 +3620,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>L87202-F0</t>
+          <t>L87606-1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87202-F0/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/1.jpg</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87202-F0\9_image_L87202-F0.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\1_image_L87606-1.jpg</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3653,17 +3653,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/2.jpg</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\10_image_L87606-1.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\2_image_L87606-1.jpg</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3681,17 +3681,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/3.jpg</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\1_image_L87606-1.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\3_image_L87606-1.jpg</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -3709,17 +3709,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/4.jpg</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\2_image_L87606-1.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\4_image_L87606-1.jpg</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -3737,17 +3737,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/5.jpg</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\3_image_L87606-1.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\5_image_L87606-1.jpg</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -3765,17 +3765,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/6.jpg</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\4_image_L87606-1.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\6_image_L87606-1.jpg</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -3793,17 +3793,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/7.jpg</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\5_image_L87606-1.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\7_image_L87606-1.jpg</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -3821,17 +3821,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/8.jpg</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\6_image_L87606-1.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\8_image_L87606-1.jpg</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -3849,17 +3849,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/L87606-1/9.jpg</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\7_image_L87606-1.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\9_image_L87606-1.jpg</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -3872,57 +3872,57 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>L87606-1</t>
+          <t>Lim-3992RH</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/1.jpg</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\8_image_L87606-1.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\1_image_Lim-3992RH.jpg</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="F124" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>L87606-1</t>
+          <t>Lim-3992RH</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/L87606-1/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/2.jpg</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\L87606-1\9_image_L87606-1.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\2_image_Lim-3992RH.jpg</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="F125" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
     </row>
     <row r="126">
@@ -3933,17 +3933,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/3.jpg</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\1_image_Lim-3992RH.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\3_image_Lim-3992RH.jpg</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -3961,17 +3961,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/4.jpg</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\2_image_Lim-3992RH.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\4_image_Lim-3992RH.jpg</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -3989,17 +3989,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/5.jpg</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\3_image_Lim-3992RH.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\5_image_Lim-3992RH.jpg</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4017,17 +4017,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/6.jpg</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\4_image_Lim-3992RH.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\6_image_Lim-3992RH.jpg</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4040,22 +4040,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Lim-3992RH</t>
+          <t>RC-0010-4lx</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/1.jpg</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\5_image_Lim-3992RH.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\1_image_RC-0010-4lx.jpg</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -4068,22 +4068,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lim-3992RH</t>
+          <t>RC-0010-4lx</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/Lim-3992RH/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/2.jpg</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\Lim-3992RH\6_image_Lim-3992RH.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\2_image_RC-0010-4lx.jpg</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -4101,17 +4101,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/3.jpg</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\1_image_RC-0010-4lx.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\3_image_RC-0010-4lx.jpg</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -4129,17 +4129,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/4.jpg</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\2_image_RC-0010-4lx.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\4_image_RC-0010-4lx.jpg</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -4157,17 +4157,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/5.jpg</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\3_image_RC-0010-4lx.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\5_image_RC-0010-4lx.jpg</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -4185,17 +4185,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/6.jpg</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\4_image_RC-0010-4lx.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\6_image_RC-0010-4lx.jpg</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -4213,17 +4213,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/7.jpg</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\5_image_RC-0010-4lx.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\7_image_RC-0010-4lx.jpg</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -4241,17 +4241,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/8.jpg</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\6_image_RC-0010-4lx.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\8_image_RC-0010-4lx.jpg</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -4264,57 +4264,57 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RC-0010-4lx</t>
+          <t>T-B3142</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/T-B3142/1.jpg</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\7_image_RC-0010-4lx.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\T-B3142\1_image_T-B3142.jpg</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="F138" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RC-0010-4lx</t>
+          <t>T-B3142</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RC-0010-4lx/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/T-B3142/2.jpg</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\RC-0010-4lx\8_image_RC-0010-4lx.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\T-B3142\2_image_T-B3142.jpg</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="F139" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="140">
@@ -4325,21 +4325,21 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/T-B3142/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/T-B3142/3.jpg</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\T-B3142\1_image_T-B3142.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\T-B3142\3_image_T-B3142.jpg</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="F140" t="n">
         <v>1000</v>
@@ -4353,17 +4353,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/T-B3142/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/T-B3142/4.jpg</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\T-B3142\2_image_T-B3142.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\T-B3142\4_image_T-B3142.jpg</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -4376,57 +4376,57 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>T-B3142</t>
+          <t>TW-Avenue-dark-beige-flo</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/T-B3142/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/10.jpg</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\T-B3142\3_image_T-B3142.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\10_image_TW-Avenue-dark-beige-flo.jpg</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>988</v>
+        <v>800</v>
       </c>
       <c r="F142" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>T-B3142</t>
+          <t>TW-Avenue-dark-beige-flo</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/T-B3142/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/1.jpg</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\T-B3142\4_image_T-B3142.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\1_image_TW-Avenue-dark-beige-flo.jpg</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F143" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="144">
@@ -4437,17 +4437,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/2.jpg</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\10_image_TW-Avenue-dark-beige-flo.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\2_image_TW-Avenue-dark-beige-flo.jpg</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -4465,17 +4465,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/3.jpg</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\1_image_TW-Avenue-dark-beige-flo.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\3_image_TW-Avenue-dark-beige-flo.jpg</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -4493,17 +4493,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/4.jpg</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\2_image_TW-Avenue-dark-beige-flo.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\4_image_TW-Avenue-dark-beige-flo.jpg</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -4521,17 +4521,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/5.jpg</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\3_image_TW-Avenue-dark-beige-flo.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\5_image_TW-Avenue-dark-beige-flo.jpg</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -4549,17 +4549,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/6.jpg</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\4_image_TW-Avenue-dark-beige-flo.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\6_image_TW-Avenue-dark-beige-flo.jpg</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -4577,17 +4577,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/7.jpg</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\5_image_TW-Avenue-dark-beige-flo.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\7_image_TW-Avenue-dark-beige-flo.jpg</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -4605,17 +4605,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/8.jpg</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\6_image_TW-Avenue-dark-beige-flo.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\8_image_TW-Avenue-dark-beige-flo.jpg</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -4633,17 +4633,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/9.jpg</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\7_image_TW-Avenue-dark-beige-flo.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\9_image_TW-Avenue-dark-beige-flo.jpg</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -4656,22 +4656,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TW-Avenue-dark-beige-flo</t>
+          <t>TW-Rubby-small-blue</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/1.jpg</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\8_image_TW-Avenue-dark-beige-flo.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\1_image_TW-Rubby-small-blue.jpg</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -4684,22 +4684,22 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TW-Avenue-dark-beige-flo</t>
+          <t>TW-Rubby-small-blue</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Avenue-dark-beige-flo/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/2.jpg</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Avenue-dark-beige-flo\9_image_TW-Avenue-dark-beige-flo.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\2_image_TW-Rubby-small-blue.jpg</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -4717,17 +4717,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/3.jpg</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\1_image_TW-Rubby-small-blue.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\3_image_TW-Rubby-small-blue.jpg</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -4745,17 +4745,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/4.jpg</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\2_image_TW-Rubby-small-blue.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\4_image_TW-Rubby-small-blue.jpg</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -4773,17 +4773,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/5.jpg</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\3_image_TW-Rubby-small-blue.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\5_image_TW-Rubby-small-blue.jpg</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -4801,17 +4801,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/6.jpg</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\4_image_TW-Rubby-small-blue.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\6_image_TW-Rubby-small-blue.jpg</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -4829,17 +4829,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/7.jpg</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\5_image_TW-Rubby-small-blue.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\7_image_TW-Rubby-small-blue.jpg</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/8.jpg</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\6_image_TW-Rubby-small-blue.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\8_image_TW-Rubby-small-blue.jpg</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -4880,22 +4880,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TW-Rubby-small-blue</t>
+          <t>V1125FX02-black</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/V1125FX02-black/1.jpg</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\7_image_TW-Rubby-small-blue.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1125FX02-black\1_image_V1125FX02-black.jpg</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -4908,22 +4908,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TW-Rubby-small-blue</t>
+          <t>V1125FX02-black</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/TW-Rubby-small-blue/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/V1125FX02-black/2.jpg</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\TW-Rubby-small-blue\8_image_TW-Rubby-small-blue.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1125FX02-black\2_image_V1125FX02-black.jpg</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -4936,7 +4936,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>V1125FX02-black</t>
+          <t>V1T123-H33-BE-black</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4946,12 +4946,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/V1125FX02-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/1.jpg</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1125FX02-black\1_image_V1125FX02-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\1_image_V1T123-H33-BE-black.jpeg</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -4964,7 +4964,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>V1125FX02-black</t>
+          <t>V1T123-H33-BE-black</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4974,12 +4974,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/V1125FX02-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/2.jpg</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1125FX02-black\2_image_V1125FX02-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\2_image_V1T123-H33-BE-black.jpeg</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -4997,17 +4997,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/3.jpg</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\1_image_V1T123-H33-BE-black.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\3_image_V1T123-H33-BE-black.jpeg</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5025,17 +5025,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/4.jpg</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\2_image_V1T123-H33-BE-black.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\4_image_V1T123-H33-BE-black.jpeg</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -5053,17 +5053,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/5.jpg</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\3_image_V1T123-H33-BE-black.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\5_image_V1T123-H33-BE-black.jpeg</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -5081,17 +5081,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/6.jpg</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\4_image_V1T123-H33-BE-black.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\6_image_V1T123-H33-BE-black.jpeg</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -5104,57 +5104,57 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>V1T123-H33-BE-black</t>
+          <t>VC02807cognac</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/10.jpg</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\5_image_V1T123-H33-BE-black.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\10_image_VC02807cognac.jpg</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>800</v>
+        <v>970</v>
       </c>
       <c r="F168" t="n">
-        <v>800</v>
+        <v>970</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>V1T123-H33-BE-black</t>
+          <t>VC02807cognac</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/V1T123-H33-BE-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/1.jpg</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\V1T123-H33-BE-black\6_image_V1T123-H33-BE-black.jpeg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\1_image_VC02807cognac.jpg</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>800</v>
+        <v>970</v>
       </c>
       <c r="F169" t="n">
-        <v>800</v>
+        <v>970</v>
       </c>
     </row>
     <row r="170">
@@ -5165,17 +5165,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/2.jpg</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\10_image_VC02807cognac.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\2_image_VC02807cognac.jpg</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -5193,17 +5193,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/3.jpg</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\1_image_VC02807cognac.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\3_image_VC02807cognac.jpg</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -5221,17 +5221,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/4.jpg</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\2_image_VC02807cognac.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\4_image_VC02807cognac.jpg</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -5249,17 +5249,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/5.jpg</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\3_image_VC02807cognac.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\5_image_VC02807cognac.jpg</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -5277,17 +5277,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/6.jpg</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\4_image_VC02807cognac.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\6_image_VC02807cognac.jpg</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -5305,17 +5305,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/7.jpg</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\5_image_VC02807cognac.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\7_image_VC02807cognac.jpg</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -5333,17 +5333,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/8.jpg</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\6_image_VC02807cognac.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\8_image_VC02807cognac.jpg</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -5361,79 +5361,23 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/9.jpg</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\7_image_VC02807cognac.jpg</t>
+          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\9_image_VC02807cognac.jpg</t>
         </is>
       </c>
       <c r="E177" t="n">
         <v>970</v>
       </c>
       <c r="F177" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>VC02807cognac</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>8.jpg</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/8.jpg</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\8_image_VC02807cognac.jpg</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>970</v>
-      </c>
-      <c r="F178" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>VC02807cognac</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>9.jpg</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/VC02807cognac/9.jpg</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/для нових скриптів/фото\VC02807cognac\9_image_VC02807cognac.jpg</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>970</v>
-      </c>
-      <c r="F179" t="n">
         <v>970</v>
       </c>
     </row>

--- a/photo_links.xlsx
+++ b/photo_links.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-14-1-o-felt-d\001_image_BN-GC-14-1-o-felt-d-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-14-1-o-felt-d\001_image_BN-GC-14-1-o-felt-d-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-14-1-o-felt-d\2_image_BN-GC-14-1-o-felt-d-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-14-1-o-felt-d\2_image_BN-GC-14-1-o-felt-d-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-14-1-o-felt-d\3_image_BN-GC-14-1-o-felt-d-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-14-1-o-felt-d\3_image_BN-GC-14-1-o-felt-d-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -751,7 +751,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-16-1-o-felt-d\001_image_BN-GC-16-1-o-felt-d-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-16-1-o-felt-d\001_image_BN-GC-16-1-o-felt-d-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-16-1-o-felt-d\2_image_BN-GC-16-1-o-felt-d-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-16-1-o-felt-d\2_image_BN-GC-16-1-o-felt-d-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -807,7 +807,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-16-1-o-felt-d\3_image_BN-GC-16-1-o-felt-d-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-GC-16-1-o-felt-d\3_image_BN-GC-16-1-o-felt-d-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -891,7 +891,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-OP-12-g-kr\2_image_BN-OP-12-g-kr-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-OP-12-g-kr\2_image_BN-OP-12-g-kr-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-OP-12-g-kr\3_image_BN-OP-12-g-kr-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-OP-12-g-kr\3_image_BN-OP-12-g-kr-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-13-k\2_image_BN-SB-13-k-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-13-k\2_image_BN-SB-13-k-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-13-k\3_image_BN-SB-13-k-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-13-k\3_image_BN-SB-13-k-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-13-vin\2_image_BN-SB-13-vin-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-13-vin\2_image_BN-SB-13-vin-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-13-vin\3_image_BN-SB-13-vin-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-13-vin\3_image_BN-SB-13-vin-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-6\2_image_BN-SB-6_073926337432-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-6\2_image_BN-SB-6_073926337432-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-6\3_image_BN-SB-6_073926493725-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-6\3_image_BN-SB-6_073926493725-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-6\4_image_BN-SB-6_073926689097-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\BN-SB-6\4_image_BN-SB-6_073926689097-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\TW-PH-black-ksr\001_image_TW-PH-black-ksr-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\TW-PH-black-ksr\001_image_TW-PH-black-ksr-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\TW-PH-black-ksr\4_image_TW-PH-black-ksr-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото\TW-PH-black-ksr\4_image_TW-PH-black-ksr-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E42" t="n">

--- a/photo_links.xlsx
+++ b/photo_links.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BN-GC-14-1-o-felt-d-Photoroom</t>
+          <t>40236112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -466,103 +466,1447 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-GC-14-1-o-felt-d-Photoroom/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/40236112/1.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото/BN-GC-14-1-o-felt-d\001_image_BN-GC-14-1-o-felt-d-Photoroom.jpg</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\40236112\001_image_40236112.jpg</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>501</v>
+        <v>958</v>
       </c>
       <c r="F2" t="n">
-        <v>532</v>
+        <v>957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BN-GC-14-1-o-felt-d-Photoroom</t>
+          <t>40236112</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-GC-14-1-o-felt-d-Photoroom/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/40236112/7.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото/BN-GC-14-1-o-felt-d\2_image_BN-GC-14-1-o-felt-d-Photoroom.jpg</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\40236112\007_image_40236112.jpg</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>699</v>
+        <v>1097</v>
       </c>
       <c r="F3" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BN-GC-14-1-o-felt-d-Photoroom</t>
+          <t>40236112</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/BN-GC-14-1-o-felt-d-Photoroom/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/40236112/2.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото/BN-GC-14-1-o-felt-d\3_image_BN-GC-14-1-o-felt-d-Photoroom.jpg</t>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\40236112\2_image_40236112.jpg</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F4" t="n">
-        <v>501</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>40236112</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/40236112/4.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\40236112\4_image_40236112.jpg</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1744</v>
+      </c>
+      <c r="F5" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>40236112</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/40236112/5.jpg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\40236112\5_image_40236112.jpg</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>692</v>
+      </c>
+      <c r="F6" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>40236112</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/40236112/6.jpg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\40236112\6_image_40236112.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>901</v>
+      </c>
+      <c r="F7" t="n">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>BN-GC-14-1-o-felt-d</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-GC-14-1-o-felt-d/1.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-GC-14-1-o-felt-d\001_image_BN-GC-14-1-o-felt-d.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>501</v>
+      </c>
+      <c r="F8" t="n">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BN-GC-14-1-o-felt-d</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-GC-14-1-o-felt-d/2.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-GC-14-1-o-felt-d\2_image_BN-GC-14-1-o-felt-d.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>699</v>
+      </c>
+      <c r="F9" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BN-GC-14-1-o-felt-d</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-GC-14-1-o-felt-d/3.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-GC-14-1-o-felt-d\3_image_BN-GC-14-1-o-felt-d.jpg</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>511</v>
+      </c>
+      <c r="F10" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BN-GC-14-1-o-felt-d</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>6.jpg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://oleks-netizen.github.io/product-images/BN-GC-14-1-o-felt-d/6.jpg</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/не всі фото/обрізані фото/BN-GC-14-1-o-felt-d\6_image_BN-GC-14-1-o-felt-d.jpg</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-GC-14-1-o-felt-d\6_image_BN-GC-14-1-o-felt-d.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>701</v>
       </c>
-      <c r="F5" t="n">
-        <v>501</v>
+      <c r="F11" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BN-GC-16-1-o-felt-d</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-GC-16-1-o-felt-d/1.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-GC-16-1-o-felt-d\001_image_BN-GC-16-1-o-felt-d.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>544</v>
+      </c>
+      <c r="F12" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BN-GC-16-1-o-felt-d</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-GC-16-1-o-felt-d/2.jpg</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-GC-16-1-o-felt-d\2_image_BN-GC-16-1-o-felt-d.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>698</v>
+      </c>
+      <c r="F13" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BN-GC-16-1-o-felt-d</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-GC-16-1-o-felt-d/3.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-GC-16-1-o-felt-d\3_image_BN-GC-16-1-o-felt-d.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>545</v>
+      </c>
+      <c r="F14" t="n">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BN-GC-16-1-o-felt-d</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-GC-16-1-o-felt-d/6.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-GC-16-1-o-felt-d\6_image_BN-GC-16-1-o-felt-d.jpg</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>701</v>
+      </c>
+      <c r="F15" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BN-OP-12-g-kr</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-12-g-kr/1.jpg</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-OP-12-g-kr\001_image_BN-OP-12-g-kr.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>620</v>
+      </c>
+      <c r="F16" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BN-OP-12-g-kr</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2.jpg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-12-g-kr/2.jpg</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-OP-12-g-kr\2_image_BN-OP-12-g-kr.jpg</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1069</v>
+      </c>
+      <c r="F17" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BN-OP-12-g-kr</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-OP-12-g-kr/3.jpg</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-OP-12-g-kr\3_image_BN-OP-12-g-kr.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>608</v>
+      </c>
+      <c r="F18" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BN-SB-13-k</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-SB-13-k/1.jpg</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-SB-13-k\001_image_BN-SB-13-k.jpg</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>501</v>
+      </c>
+      <c r="F19" t="n">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BN-SB-13-k</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2.jpg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-SB-13-k/2.jpg</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-SB-13-k\2_image_BN-SB-13-k.jpg</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>685</v>
+      </c>
+      <c r="F20" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BN-SB-13-k</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-SB-13-k/3.jpg</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-SB-13-k\3_image_BN-SB-13-k.jpg</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>686</v>
+      </c>
+      <c r="F21" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BN-SB-13-vin</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-SB-13-vin/1.jpg</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-SB-13-vin\001_image_BN-SB-13-vin.jpg</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>501</v>
+      </c>
+      <c r="F22" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BN-SB-13-vin</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2.jpg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-SB-13-vin/2.jpg</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-SB-13-vin\2_image_BN-SB-13-vin.jpg</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>685</v>
+      </c>
+      <c r="F23" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BN-SB-13-vin</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-SB-13-vin/3.jpg</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-SB-13-vin\3_image_BN-SB-13-vin.jpg</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>686</v>
+      </c>
+      <c r="F24" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BN-SB-6_073926907251</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-SB-6_073926907251/1.jpg</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-SB-6\001_image_BN-SB-6_073926907251.jpg</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>501</v>
+      </c>
+      <c r="F25" t="n">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BN-SB-6_073926337432</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2.jpg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-SB-6_073926337432/2.jpg</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-SB-6\2_image_BN-SB-6_073926337432.jpg</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>644</v>
+      </c>
+      <c r="F26" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BN-SB-6_073926493725</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-SB-6_073926493725/3.jpg</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-SB-6\3_image_BN-SB-6_073926493725.jpg</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>643</v>
+      </c>
+      <c r="F27" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BN-SB-6_073926689097</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4.jpg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/BN-SB-6_073926689097/4.jpg</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\BN-SB-6\4_image_BN-SB-6_073926689097.jpg</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>646</v>
+      </c>
+      <c r="F28" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HB10032_3044</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/HB10032_3044/1.jpg</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\HB10032_3044\001_image_HB10032_3044.jpg</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>955</v>
+      </c>
+      <c r="F29" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HB10032_3044</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/HB10032_3044/5.jpg</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\HB10032_3044\005_image_HB10032_3044.jpg</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>881</v>
+      </c>
+      <c r="F30" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HB10032_3044</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/HB10032_3044/3.jpg</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\HB10032_3044\3_image_HB10032_3044.jpg</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>726</v>
+      </c>
+      <c r="F31" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HB10032_3044</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4.jpg</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/HB10032_3044/4.jpg</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\HB10032_3044\4_image_HB10032_3044.jpg</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>681</v>
+      </c>
+      <c r="F32" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RB63 LIME M</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RB63 LIME M/1.jpg</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\RB63 LIME M\001_image_RB63 LIME M.jpg</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>736</v>
+      </c>
+      <c r="F33" t="n">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RB63 LIME M</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RB63 LIME M/5.jpg</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\RB63 LIME M\005_image_RB63 LIME M.jpg</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>869</v>
+      </c>
+      <c r="F34" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RB63 LIME M</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2.jpg</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RB63 LIME M/2.jpg</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\RB63 LIME M\2_image_RB63 LIME M.jpg</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>873</v>
+      </c>
+      <c r="F35" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RB63 LIME M</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RB63 LIME M/3.jpg</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\RB63 LIME M\3_image_RB63 LIME M.jpg</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>603</v>
+      </c>
+      <c r="F36" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TW-PH-beige-ksr</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-beige-ksr/1.jpg</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-beige-ksr\001_image_TW-PH-beige-ksr.jpg</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>501</v>
+      </c>
+      <c r="F37" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TW-PH-beige-ksr</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-beige-ksr/3.jpg</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-beige-ksr\003_image_TW-PH-beige-ksr.jpg</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>501</v>
+      </c>
+      <c r="F38" t="n">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TW-PH-black-ksr</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-black-ksr/1.jpg</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-black-ksr\001_image_TW-PH-black-ksr.jpg</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>800</v>
+      </c>
+      <c r="F39" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TW-PH-black-ksr</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-black-ksr/6.jpg</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-black-ksr\006_image_TW-PH-black-ksr.jpg</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>501</v>
+      </c>
+      <c r="F40" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TW-PH-black-ksr</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-black-ksr/3.jpg</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-black-ksr\3_image_TW-PH-black-ksr.jpg</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>800</v>
+      </c>
+      <c r="F41" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TW-PH-black-ksr</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>4.jpg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-black-ksr/4.jpg</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-black-ksr\4_image_TW-PH-black-ksr.jpg</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>800</v>
+      </c>
+      <c r="F42" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TW-PH-black-ksr</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-black-ksr/5.jpg</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-black-ksr\5_image_TW-PH-black-ksr.jpg</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>500</v>
+      </c>
+      <c r="F43" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TW-PH-dark-blue</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-dark-blue/1.jpg</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-dark-blue\001_image_TW-PH-dark-blue.jpg</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>501</v>
+      </c>
+      <c r="F44" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TW-PH-dark-blue</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-dark-blue/3.jpg</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-dark-blue\003_image_TW-PH-dark-blue.jpg</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>501</v>
+      </c>
+      <c r="F45" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TW-PH-kon-crz</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-kon-crz/1.jpg</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-kon-crz\001_image_TW-PH-kon-crz.jpg</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>501</v>
+      </c>
+      <c r="F46" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TW-PH-kon-crz</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-kon-crz/3.jpg</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-kon-crz\003_image_TW-PH-kon-crz.jpg</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>500</v>
+      </c>
+      <c r="F47" t="n">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TW-PH-kon-ksr</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-kon-ksr/1.jpg</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-kon-ksr\001_image_TW-PH-kon-ksr.jpg</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>527</v>
+      </c>
+      <c r="F48" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TW-PH-kon-ksr</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-kon-ksr/3.jpg</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-kon-ksr\003_image_TW-PH-kon-ksr.jpg</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>501</v>
+      </c>
+      <c r="F49" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TW-PH-mars-ksr</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-mars-ksr/1.jpg</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-mars-ksr\001_image_TW-PH-mars-ksr.jpg</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>501</v>
+      </c>
+      <c r="F50" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TW-PH-mars-ksr</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-mars-ksr/3.jpg</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-mars-ksr\003_image_TW-PH-mars-ksr.jpg</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>500</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TW-PH-red-saf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-red-saf/1.jpg</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-red-saf\001_image_TW-PH-red-saf.jpg</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>500</v>
+      </c>
+      <c r="F52" t="n">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TW-PH-red-saf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/TW-PH-red-saf/3.jpg</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/не всі фото/1 без фоторум\TW-PH-red-saf\003_image_TW-PH-red-saf.jpg</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>501</v>
+      </c>
+      <c r="F53" t="n">
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/photo_links.xlsx
+++ b/photo_links.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3edfff52020ebe32c91adc248efd2ba1-Photoroom</t>
+          <t>20869_1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -466,12 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/3edfff52020ebe32c91adc248efd2ba1-Photoroom/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/1.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20869_1\001_image_3edfff52020ebe32c91adc248efd2ba1-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\001_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -499,39 +499,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20869_1\002_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\002_image_20869_1.png</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>920</v>
+        <v>733</v>
       </c>
       <c r="F3" t="n">
-        <v>1200</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20869_1</t>
+          <t>20869_1_20869_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1_20869_1/10.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20869_1\11_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\010_image_20869_1_20869_1.jpg</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="F4" t="n">
         <v>1200</v>
@@ -545,24 +545,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/11.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20869_1\3_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\11_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1143</v>
+        <v>1200</v>
       </c>
       <c r="F5" t="n">
-        <v>910</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6">
@@ -573,24 +573,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/3.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20869_1\4_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\3_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1196</v>
+        <v>1143</v>
       </c>
       <c r="F6" t="n">
-        <v>1193</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7">
@@ -601,24 +601,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/4.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20869_1\5_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\4_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F7" t="n">
-        <v>1200</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8">
@@ -629,17 +629,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/5.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20869_1\6_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\5_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -657,24 +657,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/6.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20869_1\7_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\6_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>1200</v>
       </c>
       <c r="F9" t="n">
-        <v>930</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10">
@@ -685,80 +685,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/7.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20869_1\8_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\7_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1200</v>
       </c>
       <c r="F10" t="n">
-        <v>1085</v>
+        <v>930</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20871_1</t>
+          <t>20869_1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/8.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20871_1\001_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\8_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1200</v>
       </c>
       <c r="F11" t="n">
-        <v>1096</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20871_1-Photoroom</t>
+          <t>20871_1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1-Photoroom/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/1.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20871_1\002_image_20871_1-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\001_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>781</v>
+        <v>732</v>
       </c>
       <c r="F12" t="n">
-        <v>912</v>
+        <v>891</v>
       </c>
     </row>
     <row r="13">
@@ -769,52 +769,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/12.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/2.jpg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20871_1\012_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\002_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1028</v>
+        <v>781</v>
       </c>
       <c r="F13" t="n">
-        <v>1200</v>
+        <v>912</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20871_1</t>
+          <t>20871_1_20871_1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1_20871_1/10.jpg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20871_1\11_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\010_image_20871_1_20871_1.jpg</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>1200</v>
       </c>
       <c r="F14" t="n">
-        <v>1200</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="15">
@@ -825,24 +825,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>12.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/12.jpg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20871_1\3_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\012_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1172</v>
+        <v>1028</v>
       </c>
       <c r="F15" t="n">
-        <v>857</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16">
@@ -853,24 +853,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/11.jpg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20871_1\4_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\11_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="F16" t="n">
-        <v>1193</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17">
@@ -881,24 +881,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/3.jpg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20871_1\5_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\3_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1200</v>
+        <v>1172</v>
       </c>
       <c r="F17" t="n">
-        <v>1200</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18">
@@ -909,24 +909,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/4.jpg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20871_1\6_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\4_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>925</v>
+        <v>1196</v>
       </c>
       <c r="F18" t="n">
-        <v>1200</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="19">
@@ -937,24 +937,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/5.jpg</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20871_1\7_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\5_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>1200</v>
       </c>
       <c r="F19" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="20">
@@ -965,136 +965,136 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/6.jpg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20871_1\8_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\6_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E20" t="n">
+        <v>925</v>
+      </c>
+      <c r="F20" t="n">
         <v>1200</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20871_1-Photoroom</t>
+          <t>20871_1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1-Photoroom/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/7.jpg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\20871_1\9_image_20871_1-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\7_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>732</v>
+        <v>1200</v>
       </c>
       <c r="F21" t="n">
-        <v>891</v>
+        <v>867</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>23148-Photoroom</t>
+          <t>20871_1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148-Photoroom/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/8.jpg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23148\001_image_23148-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\8_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>764</v>
+        <v>1200</v>
       </c>
       <c r="F22" t="n">
-        <v>846</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23148-Photoroom</t>
+          <t>23148_23148-Photoroom</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148-Photoroom/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148_23148-Photoroom/1.jpg</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23148\002_image_23148-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\001_image_23148_23148-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>827</v>
+        <v>764</v>
       </c>
       <c r="F23" t="n">
-        <v>917</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23148</t>
+          <t>23148_23148-Photoroom</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148_23148-Photoroom/2.jpg</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23148\009_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\002_image_23148_23148-Photoroom.jpg</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>892</v>
+        <v>827</v>
       </c>
       <c r="F24" t="n">
-        <v>1200</v>
+        <v>917</v>
       </c>
     </row>
     <row r="25">
@@ -1105,24 +1105,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/12.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/9.jpg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23148\012_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\009_image_23148.jpg</t>
         </is>
       </c>
       <c r="E25" t="n">
+        <v>892</v>
+      </c>
+      <c r="F25" t="n">
         <v>1200</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1108</v>
       </c>
     </row>
     <row r="26">
@@ -1133,24 +1133,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>12.jpg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/12.jpg</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23148\11_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\012_image_23148.jpg</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>1200</v>
       </c>
       <c r="F26" t="n">
-        <v>1200</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="27">
@@ -1161,24 +1161,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/11.jpg</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23148\3_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\11_image_23148.jpg</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1178</v>
+        <v>1200</v>
       </c>
       <c r="F27" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="28">
@@ -1189,24 +1189,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/3.jpg</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23148\4_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\3_image_23148.jpg</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="F28" t="n">
-        <v>1193</v>
+        <v>933</v>
       </c>
     </row>
     <row r="29">
@@ -1217,24 +1217,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/4.jpg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23148\5_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\4_image_23148.jpg</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F29" t="n">
-        <v>965</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="30">
@@ -1245,24 +1245,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/5.jpg</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23148\6_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\5_image_23148.jpg</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>1200</v>
       </c>
       <c r="F30" t="n">
-        <v>1200</v>
+        <v>965</v>
       </c>
     </row>
     <row r="31">
@@ -1273,21 +1273,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/6.jpg</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23148\7_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\6_image_23148.jpg</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1137</v>
+        <v>1200</v>
       </c>
       <c r="F31" t="n">
         <v>1200</v>
@@ -1301,80 +1301,80 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/7.jpg</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23148\8_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\7_image_23148.jpg</t>
         </is>
       </c>
       <c r="E32" t="n">
+        <v>1137</v>
+      </c>
+      <c r="F32" t="n">
         <v>1200</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1078</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>23150-Photoroom</t>
+          <t>23148</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150-Photoroom/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/8.jpg</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23150\001_image_23150-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\8_image_23148.jpg</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>799</v>
+        <v>1200</v>
       </c>
       <c r="F33" t="n">
-        <v>761</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>23150-Photoroom</t>
+          <t>23150</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150-Photoroom/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/1.jpg</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23150\002_image_23150-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\001_image_23150.jpg</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>748</v>
+        <v>799</v>
       </c>
       <c r="F34" t="n">
-        <v>725</v>
+        <v>761</v>
       </c>
     </row>
     <row r="35">
@@ -1385,24 +1385,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/2.jpg</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23150\11_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\002_image_23150.jpg</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1200</v>
+        <v>748</v>
       </c>
       <c r="F35" t="n">
-        <v>1200</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36">
@@ -1413,24 +1413,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/11.jpg</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23150\3_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\11_image_23150.jpg</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="F36" t="n">
-        <v>958</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="37">
@@ -1441,24 +1441,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/3.jpg</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23150\4_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\3_image_23150.jpg</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="F37" t="n">
-        <v>1191</v>
+        <v>958</v>
       </c>
     </row>
     <row r="38">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/4.jpg</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23150\5_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\4_image_23150.jpg</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F38" t="n">
-        <v>1200</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="39">
@@ -1497,24 +1497,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/5.jpg</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23150\6_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\5_image_23150.jpg</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>1200</v>
       </c>
       <c r="F39" t="n">
-        <v>966</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="40">
@@ -1525,24 +1525,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/6.jpg</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23150\7_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\6_image_23150.jpg</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>1200</v>
       </c>
       <c r="F40" t="n">
-        <v>1200</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41">
@@ -1553,80 +1553,80 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/7.jpg</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23150\8_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\7_image_23150.jpg</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>1200</v>
       </c>
       <c r="F41" t="n">
-        <v>1049</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>23152-Photoroom</t>
+          <t>23150</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152-Photoroom/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/8.jpg</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23152\001_image_23152-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\8_image_23150.jpg</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>744</v>
+        <v>1200</v>
       </c>
       <c r="F42" t="n">
-        <v>853</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>23152-Photoroom</t>
+          <t>23152</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152-Photoroom/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/1.jpg</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23152\002_image_23152-Photoroom.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\001_image_23152.jpg</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="F43" t="n">
-        <v>815</v>
+        <v>853</v>
       </c>
     </row>
     <row r="44">
@@ -1637,24 +1637,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/2.jpg</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23152\009_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\002_image_23152.jpg</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>815</v>
       </c>
     </row>
     <row r="45">
@@ -1665,21 +1665,21 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/9.jpg</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23152\11_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\009_image_23152.jpg</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1200</v>
+        <v>782</v>
       </c>
       <c r="F45" t="n">
         <v>1200</v>
@@ -1693,24 +1693,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/11.jpg</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23152\3_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\11_image_23152.jpg</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="F46" t="n">
-        <v>940</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="47">
@@ -1721,24 +1721,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/3.jpg</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23152\4_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\3_image_23152.jpg</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F47" t="n">
-        <v>1193</v>
+        <v>940</v>
       </c>
     </row>
     <row r="48">
@@ -1749,24 +1749,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/4.jpg</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23152\5_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\4_image_23152.jpg</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F48" t="n">
-        <v>1061</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="49">
@@ -1777,24 +1777,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/5.jpg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23152\6_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\5_image_23152.jpg</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>1200</v>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="50">
@@ -1805,24 +1805,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/6.jpg</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23152\7_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\6_image_23152.jpg</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="F50" t="n">
-        <v>1137</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="51">
@@ -1833,52 +1833,52 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/7.jpg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\23152\8_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\7_image_23152.jpg</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="F51" t="n">
-        <v>1015</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>51411030m</t>
+          <t>23152</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/51411030m/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/8.jpg</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\51411030m\001_image_51411030m.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\8_image_23152.jpg</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>984</v>
+        <v>1200</v>
       </c>
       <c r="F52" t="n">
-        <v>501</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="53">
@@ -1889,21 +1889,21 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/51411030m/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/1.jpg</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\51411030m\002_image_51411030m.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\001_image_51411030m.jpg</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F53" t="n">
         <v>501</v>
@@ -1927,14 +1927,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\51411030m\3_image_51411030m.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\003_image_51411030m.png</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>909</v>
+        <v>993</v>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55">
@@ -1945,24 +1945,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/51411030m/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/7.jpg</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\51411030m\4_image_51411030m.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\007_image_51411030m.png</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>510</v>
+        <v>909</v>
       </c>
       <c r="F55" t="n">
-        <v>691</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56">
@@ -1973,17 +1973,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/51411030m/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/4.jpg</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\51411030m\5_image_51411030m.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\4_image_51411030m.jpg</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2001,17 +2001,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/51411030m/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/5.jpg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\51411030m\6_image_51411030m.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\5_image_51411030m.jpg</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2024,29 +2024,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C1HS1890bl-black</t>
+          <t>51411030m</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/6.jpg</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HS1890bl-black\1_image_C1HS1890bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\6_image_51411030m.jpg</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>604</v>
+        <v>510</v>
       </c>
       <c r="F58" t="n">
-        <v>721</v>
+        <v>691</v>
       </c>
     </row>
     <row r="59">
@@ -2057,24 +2057,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HS1890bl-black\2_image_C1HS1890bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\001_image_C1HS1890bl-black.jpg</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="F59" t="n">
-        <v>710</v>
+        <v>721</v>
       </c>
     </row>
     <row r="60">
@@ -2085,24 +2085,24 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HS1890bl-black\3_image_C1HS1890bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\002_image_C1HS1890bl-black.jpg</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>800</v>
+        <v>590</v>
       </c>
       <c r="F60" t="n">
-        <v>800</v>
+        <v>710</v>
       </c>
     </row>
     <row r="61">
@@ -2113,17 +2113,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HS1890bl-black\4_image_C1HS1890bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\006_image_C1HS1890bl-black.jpg</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2141,52 +2141,52 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HS1890bl-black\5_image_C1HS1890bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\3_image_C1HS1890bl-black.jpg</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>502</v>
+        <v>800</v>
       </c>
       <c r="F62" t="n">
-        <v>715</v>
+        <v>800</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C1HSSA0546bl-black</t>
+          <t>C1HS1890bl-black</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA0546bl-black\1_image_C1HSSA0546bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\5_image_C1HS1890bl-black.png</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1019</v>
+        <v>502</v>
       </c>
       <c r="F63" t="n">
-        <v>501</v>
+        <v>715</v>
       </c>
     </row>
     <row r="64">
@@ -2197,21 +2197,21 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA0546bl-black\2_image_C1HSSA0546bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\001_image_C1HSSA0546bl-black.jpg</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1069</v>
+        <v>1019</v>
       </c>
       <c r="F64" t="n">
         <v>501</v>
@@ -2235,14 +2235,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA0546bl-black\3_image_C1HSSA0546bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\003_image_C1HSSA0546bl-black.png</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>800</v>
+        <v>1069</v>
       </c>
       <c r="F65" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66">
@@ -2253,17 +2253,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA0546bl-black\4_image_C1HSSA0546bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\005_image_C1HSSA0546bl-black.jpg</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2276,29 +2276,29 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C1HSSA0546gr-green</t>
+          <t>C1HSSA0546bl-black</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA0546gr-green\1_image_C1HSSA0546gr-green.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\4_image_C1HSSA0546bl-black.jpg</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1008</v>
+        <v>800</v>
       </c>
       <c r="F67" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68">
@@ -2309,21 +2309,21 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/1.jpg</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA0546gr-green\2_image_C1HSSA0546gr-green.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\001_image_C1HSSA0546gr-green.jpg</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1077</v>
+        <v>1008</v>
       </c>
       <c r="F68" t="n">
         <v>501</v>
@@ -2337,24 +2337,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/5.jpg</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA0546gr-green\3_image_C1HSSA0546gr-green.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\005_image_C1HSSA0546gr-green.png</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>800</v>
+        <v>1077</v>
       </c>
       <c r="F69" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70">
@@ -2365,17 +2365,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/3.jpg</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA0546gr-green\4_image_C1HSSA0546gr-green.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\3_image_C1HSSA0546gr-green.jpg</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2388,29 +2388,29 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C1HSSA6020bl-black</t>
+          <t>C1HSSA0546gr-green</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/4.jpg</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA6020bl-black\1_image_C1HSSA6020bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\4_image_C1HSSA0546gr-green.jpg</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>746</v>
+        <v>800</v>
       </c>
       <c r="F71" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
     </row>
     <row r="72">
@@ -2421,24 +2421,24 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA6020bl-black\2_image_C1HSSA6020bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\001_image_C1HSSA6020bl-black.jpg</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="F72" t="n">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="73">
@@ -2449,24 +2449,24 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA6020bl-black\3_image_C1HSSA6020bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\002_image_C1HSSA6020bl-black.png</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>800</v>
+        <v>738</v>
       </c>
       <c r="F73" t="n">
-        <v>800</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74">
@@ -2477,17 +2477,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA6020bl-black\4_image_C1HSSA6020bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\006_image_C1HSSA6020bl-black.png</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2505,52 +2505,52 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA6020bl-black\5_image_C1HSSA6020bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\3_image_C1HSSA6020bl-black.jpg</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>715</v>
+        <v>800</v>
       </c>
       <c r="F75" t="n">
-        <v>711</v>
+        <v>800</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C1HSSA6020gr-green</t>
+          <t>C1HSSA6020bl-black</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA6020gr-green\1_image_C1HSSA6020gr-green.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\5_image_C1HSSA6020bl-black.png</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="F76" t="n">
-        <v>583</v>
+        <v>711</v>
       </c>
     </row>
     <row r="77">
@@ -2561,24 +2561,24 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/1.jpg</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA6020gr-green\2_image_C1HSSA6020gr-green.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\001_image_C1HSSA6020gr-green.jpg</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="F77" t="n">
-        <v>615</v>
+        <v>583</v>
       </c>
     </row>
     <row r="78">
@@ -2589,24 +2589,24 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/2.jpg</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA6020gr-green\3_image_C1HSSA6020gr-green.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\002_image_C1HSSA6020gr-green.png</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="F78" t="n">
-        <v>800</v>
+        <v>662</v>
       </c>
     </row>
     <row r="79">
@@ -2617,24 +2617,24 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/3.jpg</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA6020gr-green\4_image_C1HSSA6020gr-green.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\003_image_C1HSSA6020gr-green.png</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>501</v>
+        <v>734</v>
       </c>
       <c r="F79" t="n">
-        <v>1424</v>
+        <v>615</v>
       </c>
     </row>
     <row r="80">
@@ -2645,52 +2645,52 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/4.jpg</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1HSSA6020gr-green\5_image_C1HSSA6020gr-green.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\004_image_C1HSSA6020gr-green.jpg</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>728</v>
+        <v>501</v>
       </c>
       <c r="F80" t="n">
-        <v>662</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C1SA6019bl-black</t>
+          <t>C1HSSA6020gr-green</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/6.jpg</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1SA6019bl-black\1_image_C1SA6019bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\006_image_C1HSSA6020gr-green.jpg</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>741</v>
+        <v>800</v>
       </c>
       <c r="F81" t="n">
-        <v>570</v>
+        <v>800</v>
       </c>
     </row>
     <row r="82">
@@ -2701,24 +2701,24 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1SA6019bl-black\2_image_C1SA6019bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\001_image_C1SA6019bl-black.jpg</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F82" t="n">
-        <v>526</v>
+        <v>570</v>
       </c>
     </row>
     <row r="83">
@@ -2729,24 +2729,24 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1SA6019bl-black\3_image_C1SA6019bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\002_image_C1SA6019bl-black.png</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>800</v>
+        <v>739</v>
       </c>
       <c r="F83" t="n">
-        <v>800</v>
+        <v>606</v>
       </c>
     </row>
     <row r="84">
@@ -2767,14 +2767,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1SA6019bl-black\4_image_C1SA6019bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\004_image_C1SA6019bl-black.jpg</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>501</v>
+        <v>742</v>
       </c>
       <c r="F84" t="n">
-        <v>1384</v>
+        <v>526</v>
       </c>
     </row>
     <row r="85">
@@ -2785,52 +2785,52 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1SA6019bl-black\5_image_C1SA6019bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\006_image_C1SA6019bl-black.jpg</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>739</v>
+        <v>501</v>
       </c>
       <c r="F85" t="n">
-        <v>606</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C1SA9208bl-black</t>
+          <t>C1SA6019bl-black</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1SA9208bl-black\1_image_C1SA9208bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\3_image_C1SA6019bl-black.jpg</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1049</v>
+        <v>800</v>
       </c>
       <c r="F86" t="n">
-        <v>510</v>
+        <v>800</v>
       </c>
     </row>
     <row r="87">
@@ -2841,24 +2841,24 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1SA9208bl-black\2_image_C1SA9208bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\001_image_C1SA9208bl-black.jpg</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1304</v>
+        <v>1049</v>
       </c>
       <c r="F87" t="n">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="88">
@@ -2869,24 +2869,24 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1SA9208bl-black\3_image_C1SA9208bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\002_image_C1SA9208bl-black.jpg</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>800</v>
+        <v>1304</v>
       </c>
       <c r="F88" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89">
@@ -2897,17 +2897,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1SA9208bl-black\4_image_C1SA9208bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\003_image_C1SA9208bl-black.jpg</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2920,29 +2920,29 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C1YM1725bl-black</t>
+          <t>C1SA9208bl-black</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1YM1725bl-black\1_image_C1YM1725bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\005_image_C1SA9208bl-black.jpg</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>534</v>
+        <v>800</v>
       </c>
       <c r="F90" t="n">
-        <v>731</v>
+        <v>800</v>
       </c>
     </row>
     <row r="91">
@@ -2953,24 +2953,24 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1YM1725bl-black\2_image_C1YM1725bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\001_image_C1YM1725bl-black.jpg</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="F91" t="n">
-        <v>714</v>
+        <v>731</v>
       </c>
     </row>
     <row r="92">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1YM1725bl-black\3_image_C1YM1725bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\002_image_C1YM1725bl-black.png</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>800</v>
+        <v>558</v>
       </c>
       <c r="F92" t="n">
-        <v>800</v>
+        <v>717</v>
       </c>
     </row>
     <row r="93">
@@ -3009,24 +3009,24 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1YM1725bl-black\4_image_C1YM1725bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\003_image_C1YM1725bl-black.jpg</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="F93" t="n">
-        <v>1422</v>
+        <v>714</v>
       </c>
     </row>
     <row r="94">
@@ -3037,52 +3037,52 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\C1YM1725bl-black\5_image_C1YM1725bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\006_image_C1YM1725bl-black.jpg</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>558</v>
+        <v>800</v>
       </c>
       <c r="F94" t="n">
-        <v>717</v>
+        <v>800</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>FA-7122-4x</t>
+          <t>C1YM1725bl-black</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\FA-7122-4x\001_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\4_image_C1YM1725bl-black.jpg</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>640</v>
+        <v>510</v>
       </c>
       <c r="F95" t="n">
-        <v>640</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="96">
@@ -3093,24 +3093,24 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/1.jpg</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\FA-7122-4x\002_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\001_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E96" t="n">
         <v>640</v>
       </c>
       <c r="F96" t="n">
-        <v>674</v>
+        <v>640</v>
       </c>
     </row>
     <row r="97">
@@ -3121,24 +3121,24 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/2.jpg</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\FA-7122-4x\003_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\002_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>640</v>
       </c>
       <c r="F97" t="n">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="98">
@@ -3149,24 +3149,24 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/3.jpg</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\FA-7122-4x\011_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\003_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>640</v>
       </c>
       <c r="F98" t="n">
-        <v>635</v>
+        <v>674</v>
       </c>
     </row>
     <row r="99">
@@ -3177,17 +3177,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/4.jpg</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\FA-7122-4x\10_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\004_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3205,24 +3205,24 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/10.jpg</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\FA-7122-4x\5_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\10_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E100" t="n">
         <v>640</v>
       </c>
       <c r="F100" t="n">
-        <v>617</v>
+        <v>640</v>
       </c>
     </row>
     <row r="101">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\FA-7122-4x\6_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\6_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\FA-7122-4x\7_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\7_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\FA-7122-4x\8_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\8_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\FA-7122-4x\9_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\9_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/2.jpg</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\JD7348A\001_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\002_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -3373,17 +3373,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/3.jpg</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\JD7348A\002_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\003_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3401,24 +3401,24 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/5.jpg</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\JD7348A\010_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\005_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>786</v>
+        <v>846</v>
       </c>
       <c r="F107" t="n">
-        <v>698</v>
+        <v>713</v>
       </c>
     </row>
     <row r="108">
@@ -3429,24 +3429,24 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/4.jpg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\JD7348A\3_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\4_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>846</v>
+        <v>501</v>
       </c>
       <c r="F108" t="n">
-        <v>713</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="109">
@@ -3457,24 +3457,24 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/6.jpg</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\JD7348A\4_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\6_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>501</v>
+        <v>859</v>
       </c>
       <c r="F109" t="n">
-        <v>1055</v>
+        <v>652</v>
       </c>
     </row>
     <row r="110">
@@ -3485,24 +3485,24 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/7.jpg</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\JD7348A\6_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\7_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>859</v>
+        <v>970</v>
       </c>
       <c r="F110" t="n">
-        <v>652</v>
+        <v>970</v>
       </c>
     </row>
     <row r="111">
@@ -3513,80 +3513,80 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/9.jpg</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\JD7348A\7_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\9_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>970</v>
+        <v>1129</v>
       </c>
       <c r="F111" t="n">
-        <v>970</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>JD7348A</t>
+          <t>K1266-1bl-black</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\JD7348A\8_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\001_image_K1266-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>791</v>
+        <v>715</v>
       </c>
       <c r="F112" t="n">
-        <v>708</v>
+        <v>725</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>JD7348A</t>
+          <t>K1266-1bl-black</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\JD7348A\9_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\002_image_K1266-1bl-black.png</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1129</v>
+        <v>599</v>
       </c>
       <c r="F113" t="n">
-        <v>501</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114">
@@ -3597,24 +3597,24 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1266-1bl-black\1_image_K1266-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\004_image_K1266-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>715</v>
+        <v>501</v>
       </c>
       <c r="F114" t="n">
-        <v>725</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="115">
@@ -3625,17 +3625,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1266-1bl-black\2_image_K1266-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\006_image_K1266-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1266-1bl-black\3_image_K1266-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\3_image_K1266-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3676,57 +3676,57 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>K1266-1bl-black</t>
+          <t>K1266-2bl-black</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1266-1bl-black\4_image_K1266-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\001_image_K1266-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>501</v>
+        <v>679</v>
       </c>
       <c r="F117" t="n">
-        <v>2231</v>
+        <v>729</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>K1266-1bl-black</t>
+          <t>K1266-2bl-black</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1266-1bl-black\5_image_K1266-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\002_image_K1266-2bl-black.png</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="F118" t="n">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="119">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1266-2bl-black\1_image_K1266-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\003_image_K1266-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>679</v>
+        <v>800</v>
       </c>
       <c r="F119" t="n">
-        <v>729</v>
+        <v>800</v>
       </c>
     </row>
     <row r="120">
@@ -3765,17 +3765,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1266-2bl-black\2_image_K1266-2bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\006_image_K1266-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -3793,80 +3793,80 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1266-2bl-black\3_image_K1266-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\4_image_K1266-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
       <c r="F121" t="n">
-        <v>800</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>K1266-2bl-black</t>
+          <t>K1426f-black</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1426f-black/1.jpg</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1266-2bl-black\4_image_K1266-2bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\001_image_K1426f-black.jpg</t>
         </is>
       </c>
       <c r="E122" t="n">
+        <v>882</v>
+      </c>
+      <c r="F122" t="n">
         <v>501</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2406</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>K1266-2bl-black</t>
+          <t>K1426f-black</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1426f-black/2.jpg</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1266-2bl-black\5_image_K1266-2bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\002_image_K1426f-black.jpg</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>638</v>
+        <v>1220</v>
       </c>
       <c r="F123" t="n">
-        <v>705</v>
+        <v>501</v>
       </c>
     </row>
     <row r="124">
@@ -3877,24 +3877,24 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1426f-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1426f-black/5.jpg</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1426f-black\1_image_K1426f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\005_image_K1426f-black.jpg</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>882</v>
+        <v>800</v>
       </c>
       <c r="F124" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
     </row>
     <row r="125">
@@ -3905,80 +3905,80 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1426f-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1426f-black/4.jpg</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1426f-black\2_image_K1426f-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\4_image_K1426f-black.jpg</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1220</v>
+        <v>800</v>
       </c>
       <c r="F125" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>K1426f-black</t>
+          <t>K1428f-black</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1426f-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1428f-black/2.jpg</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1426f-black\3_image_K1426f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\002_image_K1428f-black.jpg</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>800</v>
+        <v>893</v>
       </c>
       <c r="F126" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>K1426f-black</t>
+          <t>K1428f-black</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1426f-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1428f-black/3.jpg</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1426f-black\4_image_K1426f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\003_image_K1428f-black.jpg</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>800</v>
+        <v>1214</v>
       </c>
       <c r="F127" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
     </row>
     <row r="128">
@@ -3989,24 +3989,24 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1428f-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1428f-black/5.jpg</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1428f-black\1_image_K1428f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\005_image_K1428f-black.jpg</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>893</v>
+        <v>800</v>
       </c>
       <c r="F128" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
     </row>
     <row r="129">
@@ -4017,80 +4017,80 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1428f-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1428f-black/4.jpg</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1428f-black\2_image_K1428f-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\4_image_K1428f-black.jpg</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1214</v>
+        <v>800</v>
       </c>
       <c r="F129" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>K1428f-black</t>
+          <t>K166030bl-black</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1428f-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1428f-black\3_image_K1428f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\001_image_K166030bl-black.png</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>800</v>
+        <v>737</v>
       </c>
       <c r="F130" t="n">
-        <v>800</v>
+        <v>581</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>K1428f-black</t>
+          <t>K166030bl-black</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1428f-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K1428f-black\4_image_K1428f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\002_image_K166030bl-black.jpg</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>800</v>
+        <v>730</v>
       </c>
       <c r="F131" t="n">
-        <v>800</v>
+        <v>515</v>
       </c>
     </row>
     <row r="132">
@@ -4101,24 +4101,24 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166030bl-black\1_image_K166030bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\004_image_K166030bl-black.jpg</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>729</v>
+        <v>800</v>
       </c>
       <c r="F132" t="n">
-        <v>529</v>
+        <v>800</v>
       </c>
     </row>
     <row r="133">
@@ -4129,24 +4129,24 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166030bl-black\2_image_K166030bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\005_image_K166030bl-black.jpg</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>730</v>
+        <v>501</v>
       </c>
       <c r="F133" t="n">
-        <v>515</v>
+        <v>733</v>
       </c>
     </row>
     <row r="134">
@@ -4157,80 +4157,80 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166030bl-black\3_image_K166030bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\006_image_K166030bl-black.jpg</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>800</v>
+        <v>729</v>
       </c>
       <c r="F134" t="n">
-        <v>800</v>
+        <v>529</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>K166030bl-black</t>
+          <t>K166317bl-black</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166030bl-black\4_image_K166030bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\002_image_K166317bl-black.jpg</t>
         </is>
       </c>
       <c r="E135" t="n">
+        <v>811</v>
+      </c>
+      <c r="F135" t="n">
         <v>501</v>
-      </c>
-      <c r="F135" t="n">
-        <v>733</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>K166030bl-black</t>
+          <t>K166317bl-black</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166030bl-black\5_image_K166030bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\003_image_K166317bl-black.jpg</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F136" t="n">
-        <v>581</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137">
@@ -4241,21 +4241,21 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166317bl-black\1_image_K166317bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\004_image_K166317bl-black.jpg</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>811</v>
+        <v>891</v>
       </c>
       <c r="F137" t="n">
         <v>501</v>
@@ -4269,80 +4269,80 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166317bl-black\2_image_K166317bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\005_image_K166317bl-black.jpg</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>738</v>
+        <v>800</v>
       </c>
       <c r="F138" t="n">
-        <v>539</v>
+        <v>800</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>K166317bl-black</t>
+          <t>K166365bl-black</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166317bl-black\3_image_K166317bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\001_image_K166365bl-black.jpg</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>891</v>
+        <v>700</v>
       </c>
       <c r="F139" t="n">
-        <v>501</v>
+        <v>720</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>K166317bl-black</t>
+          <t>K166365bl-black</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166317bl-black\4_image_K166317bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\002_image_K166365bl-black.png</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>800</v>
+        <v>669</v>
       </c>
       <c r="F140" t="n">
-        <v>800</v>
+        <v>709</v>
       </c>
     </row>
     <row r="141">
@@ -4353,24 +4353,24 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166365bl-black\1_image_K166365bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\003_image_K166365bl-black.jpg</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F141" t="n">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="142">
@@ -4381,24 +4381,24 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166365bl-black\2_image_K166365bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\006_image_K166365bl-black.jpg</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="F142" t="n">
-        <v>712</v>
+        <v>800</v>
       </c>
     </row>
     <row r="143">
@@ -4409,80 +4409,80 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166365bl-black\3_image_K166365bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\4_image_K166365bl-black.png</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>800</v>
+        <v>510</v>
       </c>
       <c r="F143" t="n">
-        <v>800</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>K166365bl-black</t>
+          <t>K16685-1bl-black</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166365bl-black\4_image_K166365bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\001_image_K16685-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>510</v>
+        <v>644</v>
       </c>
       <c r="F144" t="n">
-        <v>1763</v>
+        <v>719</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>K166365bl-black</t>
+          <t>K16685-1bl-black</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K166365bl-black\5_image_K166365bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\002_image_K16685-1bl-black.png</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="F145" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="146">
@@ -4493,24 +4493,24 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K16685-1bl-black\1_image_K16685-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\003_image_K16685-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F146" t="n">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="147">
@@ -4521,24 +4521,24 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K16685-1bl-black\2_image_K16685-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\006_image_K16685-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>638</v>
+        <v>501</v>
       </c>
       <c r="F147" t="n">
-        <v>721</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="148">
@@ -4549,80 +4549,80 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K16685-1bl-black\3_image_K16685-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\4_image_K16685-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
       <c r="F148" t="n">
-        <v>1163</v>
+        <v>800</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>K16685-1bl-black</t>
+          <t>K16685-3bl-black</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K16685-1bl-black\4_image_K16685-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\001_image_K16685-3bl-black.jpg</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>800</v>
+        <v>623</v>
       </c>
       <c r="F149" t="n">
-        <v>800</v>
+        <v>718</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>K16685-1bl-black</t>
+          <t>K16685-3bl-black</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K16685-1bl-black\5_image_K16685-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\002_image_K16685-3bl-black.png</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="F150" t="n">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="151">
@@ -4633,24 +4633,24 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K16685-3bl-black\1_image_K16685-3bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\003_image_K16685-3bl-black.jpg</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>623</v>
+        <v>501</v>
       </c>
       <c r="F151" t="n">
-        <v>718</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="152">
@@ -4661,17 +4661,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K16685-3bl-black\2_image_K16685-3bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\004_image_K16685-3bl-black.jpg</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -4689,80 +4689,80 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K16685-3bl-black\3_image_K16685-3bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\5_image_K16685-3bl-black.jpg</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>612</v>
+        <v>800</v>
       </c>
       <c r="F153" t="n">
-        <v>716</v>
+        <v>800</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>K16685-3bl-black</t>
+          <t>K19803-1bl-black</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K16685-3bl-black\4_image_K16685-3bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\001_image_K19803-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>501</v>
+        <v>678</v>
       </c>
       <c r="F154" t="n">
-        <v>1404</v>
+        <v>719</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>K16685-3bl-black</t>
+          <t>K19803-1bl-black</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K16685-3bl-black\5_image_K16685-3bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\002_image_K19803-1bl-black.png</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>800</v>
+        <v>639</v>
       </c>
       <c r="F155" t="n">
-        <v>800</v>
+        <v>711</v>
       </c>
     </row>
     <row r="156">
@@ -4773,24 +4773,24 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-1bl-black\1_image_K19803-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\003_image_K19803-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>678</v>
+        <v>501</v>
       </c>
       <c r="F156" t="n">
-        <v>719</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="157">
@@ -4801,17 +4801,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-1bl-black\2_image_K19803-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\004_image_K19803-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -4829,17 +4829,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-1bl-black\3_image_K19803-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\006_image_K19803-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -4852,57 +4852,57 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>K19803-1bl-black</t>
+          <t>K19803-1br-brown</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/1.jpg</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-1bl-black\4_image_K19803-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\001_image_K19803-1br-brown.jpg</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>501</v>
+        <v>682</v>
       </c>
       <c r="F159" t="n">
-        <v>1570</v>
+        <v>721</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>K19803-1bl-black</t>
+          <t>K19803-1br-brown</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/2.jpg</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-1bl-black\5_image_K19803-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\002_image_K19803-1br-brown.png</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F160" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="161">
@@ -4913,24 +4913,24 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/3.jpg</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-1br-brown\1_image_K19803-1br-brown.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\003_image_K19803-1br-brown.jpg</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F161" t="n">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="162">
@@ -4941,24 +4941,24 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/6.jpg</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-1br-brown\2_image_K19803-1br-brown.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\006_image_K19803-1br-brown.jpg</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>676</v>
+        <v>800</v>
       </c>
       <c r="F162" t="n">
-        <v>714</v>
+        <v>800</v>
       </c>
     </row>
     <row r="163">
@@ -4969,80 +4969,80 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/4.jpg</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-1br-brown\3_image_K19803-1br-brown.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\4_image_K19803-1br-brown.jpg</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
       <c r="F163" t="n">
-        <v>800</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>K19803-1br-brown</t>
+          <t>K19803-2bl-black</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-1br-brown\4_image_K19803-1br-brown.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\001_image_K19803-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>501</v>
+        <v>688</v>
       </c>
       <c r="F164" t="n">
-        <v>1904</v>
+        <v>727</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>K19803-1br-brown</t>
+          <t>K19803-2bl-black</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-1br-brown\5_image_K19803-1br-brown.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\002_image_K19803-2bl-black.png</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>642</v>
+        <v>514</v>
       </c>
       <c r="F165" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="166">
@@ -5053,24 +5053,24 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-2bl-black\1_image_K19803-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\003_image_K19803-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>688</v>
+        <v>657</v>
       </c>
       <c r="F166" t="n">
-        <v>727</v>
+        <v>708</v>
       </c>
     </row>
     <row r="167">
@@ -5081,24 +5081,24 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-2bl-black\2_image_K19803-2bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\004_image_K19803-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>657</v>
+        <v>800</v>
       </c>
       <c r="F167" t="n">
-        <v>708</v>
+        <v>800</v>
       </c>
     </row>
     <row r="168">
@@ -5109,80 +5109,80 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-2bl-black\3_image_K19803-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\006_image_K19803-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
       <c r="F168" t="n">
-        <v>800</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>K19803-2bl-black</t>
+          <t>LB105 GRY</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/1.jpg</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-2bl-black\4_image_K19803-2bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\001_image_LB105 GRY.jpg</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>501</v>
+        <v>1000</v>
       </c>
       <c r="F169" t="n">
-        <v>2081</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>K19803-2bl-black</t>
+          <t>LB105 GRY</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/2.jpg</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\K19803-2bl-black\5_image_K19803-2bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\002_image_LB105 GRY.jpg</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>514</v>
+        <v>860</v>
       </c>
       <c r="F170" t="n">
-        <v>711</v>
+        <v>672</v>
       </c>
     </row>
     <row r="171">
@@ -5193,24 +5193,24 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/3.jpg</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LB105 GRY\1_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\003_image_LB105 GRY.jpg</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1000</v>
+        <v>878</v>
       </c>
       <c r="F171" t="n">
-        <v>1000</v>
+        <v>608</v>
       </c>
     </row>
     <row r="172">
@@ -5221,24 +5221,24 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/4.jpg</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LB105 GRY\2_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\4_image_LB105 GRY.jpg</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>878</v>
+        <v>605</v>
       </c>
       <c r="F172" t="n">
-        <v>608</v>
+        <v>831</v>
       </c>
     </row>
     <row r="173">
@@ -5249,24 +5249,24 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/5.jpg</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LB105 GRY\3_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\5_image_LB105 GRY.jpg</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="F173" t="n">
-        <v>672</v>
+        <v>620</v>
       </c>
     </row>
     <row r="174">
@@ -5277,24 +5277,24 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/6.jpg</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LB105 GRY\4_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\6_image_LB105 GRY.jpg</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>605</v>
+        <v>857</v>
       </c>
       <c r="F174" t="n">
-        <v>831</v>
+        <v>783</v>
       </c>
     </row>
     <row r="175">
@@ -5305,80 +5305,80 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/7.jpg</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LB105 GRY\5_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\7_image_LB105 GRY.jpg</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>868</v>
+        <v>1000</v>
       </c>
       <c r="F175" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>LB105 GRY</t>
+          <t>LBJX010013</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LBJX010013/2.jpg</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LB105 GRY\6_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\002_image_LBJX010013.jpg</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>857</v>
+        <v>653</v>
       </c>
       <c r="F176" t="n">
-        <v>783</v>
+        <v>510</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>LB105 GRY</t>
+          <t>LBJX010013</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LBJX010013/3.jpg</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LB105 GRY\7_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\003_image_LBJX010013.jpg</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F177" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="178">
@@ -5389,24 +5389,24 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LBJX010013/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LBJX010013/5.jpg</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LBJX010013\001_image_LBJX010013.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\005_image_LBJX010013.jpg</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>653</v>
+        <v>600</v>
       </c>
       <c r="F178" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
     </row>
     <row r="179">
@@ -5417,24 +5417,24 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LBJX010013/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LBJX010013/6.jpg</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LBJX010013\002_image_LBJX010013.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\006_image_LBJX010013.jpg</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1300</v>
+        <v>1065</v>
       </c>
       <c r="F179" t="n">
-        <v>1300</v>
+        <v>587</v>
       </c>
     </row>
     <row r="180">
@@ -5445,58 +5445,58 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LBJX010013/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/LBJX010013/4.jpg</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LBJX010013\006_image_LBJX010013.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\4_image_LBJX010013.jpg</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1065</v>
+        <v>987</v>
       </c>
       <c r="F180" t="n">
-        <v>587</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>LBJX010013</t>
+          <t>RE-3079-3md</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LBJX010013/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/2.jpg</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LBJX010013\3_image_LBJX010013.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\002_image_RE-3079-3md.jpg</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>600</v>
+        <v>1282</v>
       </c>
       <c r="F181" t="n">
-        <v>600</v>
+        <v>501</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>LBJX010013</t>
+          <t>RE-3079-3md</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5506,19 +5506,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LBJX010013/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/4.jpg</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\LBJX010013\4_image_LBJX010013.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\004_image_RE-3079-3md.jpg</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>987</v>
+        <v>957</v>
       </c>
       <c r="F182" t="n">
-        <v>1100</v>
+        <v>528</v>
       </c>
     </row>
     <row r="183">
@@ -5529,24 +5529,24 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/11.jpg</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\RE-3079-3md\001_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\011_image_RE-3079-3md.jpg</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1282</v>
+        <v>963</v>
       </c>
       <c r="F183" t="n">
-        <v>501</v>
+        <v>745</v>
       </c>
     </row>
     <row r="184">
@@ -5557,24 +5557,24 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/10.jpg</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\RE-3079-3md\002_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\10_image_RE-3079-3md.jpg</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>957</v>
+        <v>970</v>
       </c>
       <c r="F184" t="n">
-        <v>528</v>
+        <v>970</v>
       </c>
     </row>
     <row r="185">
@@ -5585,24 +5585,24 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/3.jpg</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\RE-3079-3md\10_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\3_image_RE-3079-3md.jpg</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>970</v>
+        <v>1059</v>
       </c>
       <c r="F185" t="n">
-        <v>970</v>
+        <v>501</v>
       </c>
     </row>
     <row r="186">
@@ -5613,24 +5613,24 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/5.jpg</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\RE-3079-3md\3_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\5_image_RE-3079-3md.jpg</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1059</v>
+        <v>799</v>
       </c>
       <c r="F186" t="n">
-        <v>501</v>
+        <v>845</v>
       </c>
     </row>
     <row r="187">
@@ -5641,24 +5641,24 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/6.jpg</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\RE-3079-3md\4_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\6_image_RE-3079-3md.jpg</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>963</v>
+        <v>927</v>
       </c>
       <c r="F187" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="188">
@@ -5669,24 +5669,24 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/7.jpg</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\RE-3079-3md\5_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\7_image_RE-3079-3md.jpg</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>799</v>
+        <v>981</v>
       </c>
       <c r="F188" t="n">
-        <v>845</v>
+        <v>501</v>
       </c>
     </row>
     <row r="189">
@@ -5697,24 +5697,24 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/8.jpg</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\RE-3079-3md\6_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\8_image_RE-3079-3md.jpg</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>927</v>
+        <v>656</v>
       </c>
       <c r="F189" t="n">
-        <v>746</v>
+        <v>929</v>
       </c>
     </row>
     <row r="190">
@@ -5725,107 +5725,51 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/9.jpg</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\RE-3079-3md\7_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\9_image_RE-3079-3md.jpg</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>981</v>
+        <v>856</v>
       </c>
       <c r="F190" t="n">
-        <v>501</v>
+        <v>955</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RE-3079-3md</t>
+          <t>RH-1811-4lx</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/RH-1811-4lx/1.jpg</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12\RE-3079-3md\8_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\RH-1811-4lx\1_image_RH-1811-4lx.jpg</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>656</v>
+        <v>754</v>
       </c>
       <c r="F191" t="n">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>RE-3079-3md</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>9.jpg</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/9.jpg</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/12\RE-3079-3md\9_image_RE-3079-3md.jpg</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>856</v>
-      </c>
-      <c r="F192" t="n">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>RH-1811-4lx</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>1.jpg</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>https://oleks-netizen.github.io/product-images/RH-1811-4lx/1.jpg</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>C:/Users/Asus/Desktop/12\RH-1811-4lx\1_image_RH-1811-4lx.jpg</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>754</v>
-      </c>
-      <c r="F193" t="n">
         <v>777</v>
       </c>
     </row>

--- a/photo_links.xlsx
+++ b/photo_links.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +499,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\002_image_20869_1.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\002_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -512,29 +512,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20869_1_20869_1</t>
+          <t>20869_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1_20869_1/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/2.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\010_image_20869_1_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\002_image_20869_1.png</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>920</v>
+        <v>733</v>
       </c>
       <c r="F4" t="n">
-        <v>1200</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5">
@@ -545,21 +545,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/10.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\11_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\010_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="F5" t="n">
         <v>1200</v>
@@ -573,24 +573,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/11.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\3_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\11_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1143</v>
+        <v>1200</v>
       </c>
       <c r="F6" t="n">
-        <v>910</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7">
@@ -601,24 +601,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/3.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\4_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\3_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1196</v>
+        <v>1143</v>
       </c>
       <c r="F7" t="n">
-        <v>1193</v>
+        <v>910</v>
       </c>
     </row>
     <row r="8">
@@ -629,24 +629,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/4.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\5_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\4_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F8" t="n">
-        <v>1200</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="9">
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/5.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\6_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\5_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -685,24 +685,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/6.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\7_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\6_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1200</v>
       </c>
       <c r="F10" t="n">
-        <v>930</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11">
@@ -713,52 +713,52 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20869_1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/7.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\8_image_20869_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\7_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1200</v>
       </c>
       <c r="F11" t="n">
-        <v>1085</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20871_1</t>
+          <t>20869_1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20869_1/8.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\001_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20869_1\8_image_20869_1.jpg</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>732</v>
+        <v>1200</v>
       </c>
       <c r="F12" t="n">
-        <v>891</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="13">
@@ -769,52 +769,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/1.jpg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\002_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\001_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>781</v>
+        <v>732</v>
       </c>
       <c r="F13" t="n">
-        <v>912</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20871_1_20871_1</t>
+          <t>20871_1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1_20871_1/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/2.jpg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\010_image_20871_1_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\002_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1200</v>
+        <v>781</v>
       </c>
       <c r="F14" t="n">
-        <v>1096</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15">
@@ -825,24 +825,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/12.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/10.jpg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\012_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\010_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1028</v>
+        <v>1200</v>
       </c>
       <c r="F15" t="n">
-        <v>1200</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="16">
@@ -853,21 +853,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>12.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/12.jpg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\11_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\012_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1200</v>
+        <v>1028</v>
       </c>
       <c r="F16" t="n">
         <v>1200</v>
@@ -881,24 +881,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/11.jpg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\3_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\11_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1172</v>
+        <v>1200</v>
       </c>
       <c r="F17" t="n">
-        <v>857</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="18">
@@ -909,24 +909,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/3.jpg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\4_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\3_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1196</v>
+        <v>1172</v>
       </c>
       <c r="F18" t="n">
-        <v>1193</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19">
@@ -937,24 +937,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/4.jpg</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\5_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\4_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F19" t="n">
-        <v>1200</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="20">
@@ -965,21 +965,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/5.jpg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\6_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\5_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>925</v>
+        <v>1200</v>
       </c>
       <c r="F20" t="n">
         <v>1200</v>
@@ -993,24 +993,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/6.jpg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\7_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\6_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E21" t="n">
+        <v>925</v>
+      </c>
+      <c r="F21" t="n">
         <v>1200</v>
-      </c>
-      <c r="F21" t="n">
-        <v>867</v>
       </c>
     </row>
     <row r="22">
@@ -1021,80 +1021,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/20871_1/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/7.jpg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\8_image_20871_1.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\7_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>1200</v>
       </c>
       <c r="F22" t="n">
-        <v>1077</v>
+        <v>867</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23148_23148-Photoroom</t>
+          <t>20871_1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148_23148-Photoroom/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/20871_1/8.jpg</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23148\001_image_23148_23148-Photoroom.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\20871_1\8_image_20871_1.jpg</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>764</v>
+        <v>1200</v>
       </c>
       <c r="F23" t="n">
-        <v>846</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23148_23148-Photoroom</t>
+          <t>23148</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148_23148-Photoroom/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/1.jpg</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23148\002_image_23148_23148-Photoroom.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\001_image_23148.jpg</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>827</v>
+        <v>764</v>
       </c>
       <c r="F24" t="n">
-        <v>917</v>
+        <v>846</v>
       </c>
     </row>
     <row r="25">
@@ -1105,24 +1105,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/2.jpg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23148\009_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\002_image_23148.jpg</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>892</v>
+        <v>827</v>
       </c>
       <c r="F25" t="n">
-        <v>1200</v>
+        <v>917</v>
       </c>
     </row>
     <row r="26">
@@ -1133,24 +1133,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/12.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/9.jpg</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23148\012_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\009_image_23148.jpg</t>
         </is>
       </c>
       <c r="E26" t="n">
+        <v>892</v>
+      </c>
+      <c r="F26" t="n">
         <v>1200</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1108</v>
       </c>
     </row>
     <row r="27">
@@ -1161,24 +1161,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>12.jpg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/12.jpg</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23148\11_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\012_image_23148.jpg</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>1200</v>
       </c>
       <c r="F27" t="n">
-        <v>1200</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="28">
@@ -1189,24 +1189,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/11.jpg</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23148\3_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\11_image_23148.jpg</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1178</v>
+        <v>1200</v>
       </c>
       <c r="F28" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="29">
@@ -1217,24 +1217,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/3.jpg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23148\4_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\3_image_23148.jpg</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="F29" t="n">
-        <v>1193</v>
+        <v>933</v>
       </c>
     </row>
     <row r="30">
@@ -1245,24 +1245,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/4.jpg</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23148\5_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\4_image_23148.jpg</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F30" t="n">
-        <v>965</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="31">
@@ -1273,24 +1273,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/5.jpg</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23148\6_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\5_image_23148.jpg</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>1200</v>
       </c>
       <c r="F31" t="n">
-        <v>1200</v>
+        <v>965</v>
       </c>
     </row>
     <row r="32">
@@ -1301,21 +1301,21 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/6.jpg</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23148\7_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\6_image_23148.jpg</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1137</v>
+        <v>1200</v>
       </c>
       <c r="F32" t="n">
         <v>1200</v>
@@ -1329,52 +1329,52 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23148/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/7.jpg</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23148\8_image_23148.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\7_image_23148.jpg</t>
         </is>
       </c>
       <c r="E33" t="n">
+        <v>1137</v>
+      </c>
+      <c r="F33" t="n">
         <v>1200</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1078</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>23150</t>
+          <t>23148</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23148/8.jpg</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23150\001_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23148\8_image_23148.jpg</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>799</v>
+        <v>1200</v>
       </c>
       <c r="F34" t="n">
-        <v>761</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="35">
@@ -1385,24 +1385,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/1.jpg</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23150\002_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\001_image_23150.jpg</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>748</v>
+        <v>799</v>
       </c>
       <c r="F35" t="n">
-        <v>725</v>
+        <v>761</v>
       </c>
     </row>
     <row r="36">
@@ -1413,24 +1413,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/2.jpg</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23150\11_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\002_image_23150.jpg</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1200</v>
+        <v>748</v>
       </c>
       <c r="F36" t="n">
-        <v>1200</v>
+        <v>725</v>
       </c>
     </row>
     <row r="37">
@@ -1441,24 +1441,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/11.jpg</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23150\3_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\11_image_23150.jpg</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="F37" t="n">
-        <v>958</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="38">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/3.jpg</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23150\4_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\3_image_23150.jpg</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="F38" t="n">
-        <v>1191</v>
+        <v>958</v>
       </c>
     </row>
     <row r="39">
@@ -1497,24 +1497,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/4.jpg</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23150\5_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\4_image_23150.jpg</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F39" t="n">
-        <v>1200</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="40">
@@ -1525,24 +1525,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/5.jpg</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23150\6_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\5_image_23150.jpg</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>1200</v>
       </c>
       <c r="F40" t="n">
-        <v>966</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="41">
@@ -1553,24 +1553,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/6.jpg</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23150\7_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\6_image_23150.jpg</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>1200</v>
       </c>
       <c r="F41" t="n">
-        <v>1200</v>
+        <v>966</v>
       </c>
     </row>
     <row r="42">
@@ -1581,52 +1581,52 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23150/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/7.jpg</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23150\8_image_23150.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\7_image_23150.jpg</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>1200</v>
       </c>
       <c r="F42" t="n">
-        <v>1049</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>23152</t>
+          <t>23150</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23150/8.jpg</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23152\001_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23150\8_image_23150.jpg</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>744</v>
+        <v>1200</v>
       </c>
       <c r="F43" t="n">
-        <v>853</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="44">
@@ -1637,24 +1637,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/1.jpg</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23152\002_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\001_image_23152.jpg</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="F44" t="n">
-        <v>815</v>
+        <v>853</v>
       </c>
     </row>
     <row r="45">
@@ -1665,24 +1665,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/2.jpg</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23152\009_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\002_image_23152.jpg</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>815</v>
       </c>
     </row>
     <row r="46">
@@ -1693,21 +1693,21 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/9.jpg</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23152\11_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\009_image_23152.jpg</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1200</v>
+        <v>782</v>
       </c>
       <c r="F46" t="n">
         <v>1200</v>
@@ -1721,24 +1721,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>11.jpg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/11.jpg</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23152\3_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\11_image_23152.jpg</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="F47" t="n">
-        <v>940</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="48">
@@ -1749,24 +1749,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/3.jpg</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23152\4_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\3_image_23152.jpg</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F48" t="n">
-        <v>1193</v>
+        <v>940</v>
       </c>
     </row>
     <row r="49">
@@ -1777,24 +1777,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/4.jpg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23152\5_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\4_image_23152.jpg</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F49" t="n">
-        <v>1061</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="50">
@@ -1805,24 +1805,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/5.jpg</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23152\6_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\5_image_23152.jpg</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>1200</v>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="51">
@@ -1833,24 +1833,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/6.jpg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23152\7_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\6_image_23152.jpg</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="F51" t="n">
-        <v>1137</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="52">
@@ -1861,52 +1861,52 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/23152/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/7.jpg</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\23152\8_image_23152.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\7_image_23152.jpg</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="F52" t="n">
-        <v>1015</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>51411030m</t>
+          <t>23152</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/51411030m/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/23152/8.jpg</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\001_image_51411030m.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\23152\8_image_23152.jpg</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>984</v>
+        <v>1200</v>
       </c>
       <c r="F53" t="n">
-        <v>501</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="54">
@@ -1917,21 +1917,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/51411030m/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/1.jpg</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\003_image_51411030m.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\001_image_51411030m.jpg</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F54" t="n">
         <v>501</v>
@@ -1945,24 +1945,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/51411030m/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/3.jpg</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\007_image_51411030m.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\003_image_51411030m.jpg</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>909</v>
+        <v>993</v>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56">
@@ -1973,24 +1973,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/51411030m/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/3.jpg</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\4_image_51411030m.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\003_image_51411030m.png</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>510</v>
+        <v>993</v>
       </c>
       <c r="F56" t="n">
-        <v>691</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57">
@@ -2001,24 +2001,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/51411030m/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/7.jpg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\5_image_51411030m.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\007_image_51411030m.jpg</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>510</v>
+        <v>909</v>
       </c>
       <c r="F57" t="n">
-        <v>691</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58">
@@ -2029,86 +2029,86 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/51411030m/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/7.jpg</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\6_image_51411030m.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\007_image_51411030m.png</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>510</v>
+        <v>909</v>
       </c>
       <c r="F58" t="n">
-        <v>691</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C1HS1890bl-black</t>
+          <t>51411030m</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/4.jpg</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\001_image_C1HS1890bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\4_image_51411030m.jpg</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>604</v>
+        <v>510</v>
       </c>
       <c r="F59" t="n">
-        <v>721</v>
+        <v>691</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C1HS1890bl-black</t>
+          <t>51411030m</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/5.jpg</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\002_image_C1HS1890bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\5_image_51411030m.jpg</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="F60" t="n">
-        <v>710</v>
+        <v>691</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C1HS1890bl-black</t>
+          <t>51411030m</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2118,19 +2118,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/51411030m/6.jpg</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\006_image_C1HS1890bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\51411030m\6_image_51411030m.jpg</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="F61" t="n">
-        <v>1638</v>
+        <v>691</v>
       </c>
     </row>
     <row r="62">
@@ -2141,24 +2141,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\3_image_C1HS1890bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\001_image_C1HS1890bl-black.jpg</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>800</v>
+        <v>604</v>
       </c>
       <c r="F62" t="n">
-        <v>800</v>
+        <v>721</v>
       </c>
     </row>
     <row r="63">
@@ -2169,58 +2169,58 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\5_image_C1HS1890bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\002_image_C1HS1890bl-black.jpg</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>502</v>
+        <v>590</v>
       </c>
       <c r="F63" t="n">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C1HSSA0546bl-black</t>
+          <t>C1HS1890bl-black</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\001_image_C1HSSA0546bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\006_image_C1HS1890bl-black.jpg</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1019</v>
+        <v>501</v>
       </c>
       <c r="F64" t="n">
-        <v>501</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C1HSSA0546bl-black</t>
+          <t>C1HS1890bl-black</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2230,25 +2230,25 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\003_image_C1HSSA0546bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\3_image_C1HS1890bl-black.jpg</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1069</v>
+        <v>800</v>
       </c>
       <c r="F65" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C1HSSA0546bl-black</t>
+          <t>C1HS1890bl-black</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2258,53 +2258,53 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\005_image_C1HSSA0546bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\5_image_C1HS1890bl-black.jpg</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>800</v>
+        <v>502</v>
       </c>
       <c r="F66" t="n">
-        <v>800</v>
+        <v>715</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C1HSSA0546bl-black</t>
+          <t>C1HS1890bl-black</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HS1890bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\4_image_C1HSSA0546bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HS1890bl-black\5_image_C1HS1890bl-black.png</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>800</v>
+        <v>502</v>
       </c>
       <c r="F67" t="n">
-        <v>800</v>
+        <v>715</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C1HSSA0546gr-green</t>
+          <t>C1HSSA0546bl-black</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2314,16 +2314,16 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\001_image_C1HSSA0546gr-green.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\001_image_C1HSSA0546bl-black.jpg</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="F68" t="n">
         <v>501</v>
@@ -2332,26 +2332,26 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C1HSSA0546gr-green</t>
+          <t>C1HSSA0546bl-black</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\005_image_C1HSSA0546gr-green.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\003_image_C1HSSA0546bl-black.jpg</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="F69" t="n">
         <v>501</v>
@@ -2360,7 +2360,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C1HSSA0546gr-green</t>
+          <t>C1HSSA0546bl-black</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2370,40 +2370,40 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\3_image_C1HSSA0546gr-green.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\003_image_C1HSSA0546bl-black.png</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>800</v>
+        <v>1069</v>
       </c>
       <c r="F70" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C1HSSA0546gr-green</t>
+          <t>C1HSSA0546bl-black</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\4_image_C1HSSA0546gr-green.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\005_image_C1HSSA0546bl-black.jpg</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2416,259 +2416,259 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C1HSSA6020bl-black</t>
+          <t>C1HSSA0546bl-black</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\001_image_C1HSSA6020bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546bl-black\4_image_C1HSSA0546bl-black.jpg</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>746</v>
+        <v>800</v>
       </c>
       <c r="F72" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C1HSSA6020bl-black</t>
+          <t>C1HSSA0546gr-green</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/1.jpg</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\002_image_C1HSSA6020bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\001_image_C1HSSA0546gr-green.jpg</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>738</v>
+        <v>1008</v>
       </c>
       <c r="F73" t="n">
-        <v>565</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C1HSSA6020bl-black</t>
+          <t>C1HSSA0546gr-green</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/5.jpg</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\006_image_C1HSSA6020bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\005_image_C1HSSA0546gr-green.jpg</t>
         </is>
       </c>
       <c r="E74" t="n">
+        <v>1077</v>
+      </c>
+      <c r="F74" t="n">
         <v>501</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1426</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C1HSSA6020bl-black</t>
+          <t>C1HSSA0546gr-green</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/5.jpg</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\3_image_C1HSSA6020bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\005_image_C1HSSA0546gr-green.png</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>800</v>
+        <v>1077</v>
       </c>
       <c r="F75" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C1HSSA6020bl-black</t>
+          <t>C1HSSA0546gr-green</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/3.jpg</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\5_image_C1HSSA6020bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\3_image_C1HSSA0546gr-green.jpg</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>715</v>
+        <v>800</v>
       </c>
       <c r="F76" t="n">
-        <v>711</v>
+        <v>800</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C1HSSA6020gr-green</t>
+          <t>C1HSSA0546gr-green</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA0546gr-green/4.jpg</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\001_image_C1HSSA6020gr-green.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA0546gr-green\4_image_C1HSSA0546gr-green.jpg</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>741</v>
+        <v>800</v>
       </c>
       <c r="F77" t="n">
-        <v>583</v>
+        <v>800</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C1HSSA6020gr-green</t>
+          <t>C1HSSA6020bl-black</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\002_image_C1HSSA6020gr-green.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\001_image_C1HSSA6020bl-black.jpg</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="F78" t="n">
-        <v>662</v>
+        <v>560</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C1HSSA6020gr-green</t>
+          <t>C1HSSA6020bl-black</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\003_image_C1HSSA6020gr-green.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\002_image_C1HSSA6020bl-black.jpg</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="F79" t="n">
-        <v>615</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C1HSSA6020gr-green</t>
+          <t>C1HSSA6020bl-black</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\004_image_C1HSSA6020gr-green.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\002_image_C1HSSA6020bl-black.png</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>501</v>
+        <v>738</v>
       </c>
       <c r="F80" t="n">
-        <v>1424</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C1HSSA6020gr-green</t>
+          <t>C1HSSA6020bl-black</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2678,193 +2678,193 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\006_image_C1HSSA6020gr-green.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\006_image_C1HSSA6020bl-black.jpg</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
       <c r="F81" t="n">
-        <v>800</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C1SA6019bl-black</t>
+          <t>C1HSSA6020bl-black</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\001_image_C1SA6019bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\006_image_C1HSSA6020bl-black.png</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>741</v>
+        <v>501</v>
       </c>
       <c r="F82" t="n">
-        <v>570</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C1SA6019bl-black</t>
+          <t>C1HSSA6020bl-black</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\002_image_C1SA6019bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\3_image_C1HSSA6020bl-black.jpg</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>739</v>
+        <v>800</v>
       </c>
       <c r="F83" t="n">
-        <v>606</v>
+        <v>800</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C1SA6019bl-black</t>
+          <t>C1HSSA6020bl-black</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\004_image_C1SA6019bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\5_image_C1HSSA6020bl-black.jpg</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>742</v>
+        <v>715</v>
       </c>
       <c r="F84" t="n">
-        <v>526</v>
+        <v>711</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C1SA6019bl-black</t>
+          <t>C1HSSA6020bl-black</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\006_image_C1SA6019bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020bl-black\5_image_C1HSSA6020bl-black.png</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>501</v>
+        <v>715</v>
       </c>
       <c r="F85" t="n">
-        <v>1384</v>
+        <v>711</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C1SA6019bl-black</t>
+          <t>C1HSSA6020gr-green</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/1.jpg</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\3_image_C1SA6019bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\001_image_C1HSSA6020gr-green.jpg</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>800</v>
+        <v>741</v>
       </c>
       <c r="F86" t="n">
-        <v>800</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C1SA9208bl-black</t>
+          <t>C1HSSA6020gr-green</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/2.jpg</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\001_image_C1SA9208bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\002_image_C1HSSA6020gr-green.jpg</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1049</v>
+        <v>728</v>
       </c>
       <c r="F87" t="n">
-        <v>510</v>
+        <v>662</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C1SA9208bl-black</t>
+          <t>C1HSSA6020gr-green</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2874,25 +2874,25 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/2.jpg</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\002_image_C1SA9208bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\002_image_C1HSSA6020gr-green.png</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1304</v>
+        <v>728</v>
       </c>
       <c r="F88" t="n">
-        <v>501</v>
+        <v>662</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C1SA9208bl-black</t>
+          <t>C1HSSA6020gr-green</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2902,249 +2902,249 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/3.jpg</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\003_image_C1SA9208bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\003_image_C1HSSA6020gr-green.jpg</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>800</v>
+        <v>734</v>
       </c>
       <c r="F89" t="n">
-        <v>800</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C1SA9208bl-black</t>
+          <t>C1HSSA6020gr-green</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/3.jpg</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\005_image_C1SA9208bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\003_image_C1HSSA6020gr-green.png</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>800</v>
+        <v>734</v>
       </c>
       <c r="F90" t="n">
-        <v>800</v>
+        <v>615</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C1YM1725bl-black</t>
+          <t>C1HSSA6020gr-green</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/4.jpg</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\001_image_C1YM1725bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\004_image_C1HSSA6020gr-green.jpg</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="F91" t="n">
-        <v>731</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C1YM1725bl-black</t>
+          <t>C1HSSA6020gr-green</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1HSSA6020gr-green/6.jpg</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\002_image_C1YM1725bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1HSSA6020gr-green\006_image_C1HSSA6020gr-green.jpg</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>558</v>
+        <v>800</v>
       </c>
       <c r="F92" t="n">
-        <v>717</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C1YM1725bl-black</t>
+          <t>C1SA6019bl-black</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\003_image_C1YM1725bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\001_image_C1SA6019bl-black.jpg</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>527</v>
+        <v>741</v>
       </c>
       <c r="F93" t="n">
-        <v>714</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C1YM1725bl-black</t>
+          <t>C1SA6019bl-black</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\006_image_C1YM1725bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\002_image_C1SA6019bl-black.jpg</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>800</v>
+        <v>739</v>
       </c>
       <c r="F94" t="n">
-        <v>800</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C1YM1725bl-black</t>
+          <t>C1SA6019bl-black</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\4_image_C1YM1725bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\002_image_C1SA6019bl-black.png</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>510</v>
+        <v>739</v>
       </c>
       <c r="F95" t="n">
-        <v>1422</v>
+        <v>606</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>FA-7122-4x</t>
+          <t>C1SA6019bl-black</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\001_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\004_image_C1SA6019bl-black.jpg</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>640</v>
+        <v>742</v>
       </c>
       <c r="F96" t="n">
-        <v>640</v>
+        <v>526</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FA-7122-4x</t>
+          <t>C1SA6019bl-black</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\002_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\006_image_C1SA6019bl-black.jpg</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>640</v>
+        <v>501</v>
       </c>
       <c r="F97" t="n">
-        <v>635</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FA-7122-4x</t>
+          <t>C1SA6019bl-black</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3154,193 +3154,193 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA6019bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\003_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA6019bl-black\3_image_C1SA6019bl-black.jpg</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="F98" t="n">
-        <v>674</v>
+        <v>800</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FA-7122-4x</t>
+          <t>C1SA9208bl-black</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\004_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\001_image_C1SA9208bl-black.jpg</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>640</v>
+        <v>1049</v>
       </c>
       <c r="F99" t="n">
-        <v>640</v>
+        <v>510</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>FA-7122-4x</t>
+          <t>C1SA9208bl-black</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\10_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\002_image_C1SA9208bl-black.jpg</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>640</v>
+        <v>1304</v>
       </c>
       <c r="F100" t="n">
-        <v>640</v>
+        <v>501</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>FA-7122-4x</t>
+          <t>C1SA9208bl-black</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\6_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\003_image_C1SA9208bl-black.jpg</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>514</v>
+        <v>800</v>
       </c>
       <c r="F101" t="n">
-        <v>970</v>
+        <v>800</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>FA-7122-4x</t>
+          <t>C1SA9208bl-black</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1SA9208bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\7_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1SA9208bl-black\005_image_C1SA9208bl-black.jpg</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="F102" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>FA-7122-4x</t>
+          <t>C1YM1725bl-black</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\8_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\001_image_C1YM1725bl-black.jpg</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>640</v>
+        <v>534</v>
       </c>
       <c r="F103" t="n">
-        <v>640</v>
+        <v>731</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FA-7122-4x</t>
+          <t>C1YM1725bl-black</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\9_image_FA-7122-4x.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\002_image_C1YM1725bl-black.jpg</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>640</v>
+        <v>558</v>
       </c>
       <c r="F104" t="n">
-        <v>640</v>
+        <v>717</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>JD7348A</t>
+          <t>C1YM1725bl-black</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3350,25 +3350,25 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\002_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\002_image_C1YM1725bl-black.png</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>786</v>
+        <v>558</v>
       </c>
       <c r="F105" t="n">
-        <v>698</v>
+        <v>717</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>JD7348A</t>
+          <t>C1YM1725bl-black</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3378,53 +3378,53 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\003_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\003_image_C1YM1725bl-black.jpg</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>692</v>
+        <v>527</v>
       </c>
       <c r="F106" t="n">
-        <v>783</v>
+        <v>714</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>JD7348A</t>
+          <t>C1YM1725bl-black</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\005_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\006_image_C1YM1725bl-black.jpg</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>846</v>
+        <v>800</v>
       </c>
       <c r="F107" t="n">
-        <v>713</v>
+        <v>800</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>JD7348A</t>
+          <t>C1YM1725bl-black</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3434,277 +3434,277 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/C1YM1725bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\4_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\C1YM1725bl-black\4_image_C1YM1725bl-black.jpg</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="F108" t="n">
-        <v>1055</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>JD7348A</t>
+          <t>FA-7122-4x</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/1.jpg</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\6_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\001_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>859</v>
+        <v>640</v>
       </c>
       <c r="F109" t="n">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>JD7348A</t>
+          <t>FA-7122-4x</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/2.jpg</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\7_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\002_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>970</v>
+        <v>640</v>
       </c>
       <c r="F110" t="n">
-        <v>970</v>
+        <v>635</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>JD7348A</t>
+          <t>FA-7122-4x</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/JD7348A/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/3.jpg</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\9_image_JD7348A.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\003_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1129</v>
+        <v>640</v>
       </c>
       <c r="F111" t="n">
-        <v>501</v>
+        <v>674</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>K1266-1bl-black</t>
+          <t>FA-7122-4x</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/4.jpg</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\001_image_K1266-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\004_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>715</v>
+        <v>640</v>
       </c>
       <c r="F112" t="n">
-        <v>725</v>
+        <v>640</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>K1266-1bl-black</t>
+          <t>FA-7122-4x</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>10.jpg</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/10.jpg</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\002_image_K1266-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\10_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>599</v>
+        <v>640</v>
       </c>
       <c r="F113" t="n">
-        <v>710</v>
+        <v>640</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>K1266-1bl-black</t>
+          <t>FA-7122-4x</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/6.jpg</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\004_image_K1266-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\6_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="F114" t="n">
-        <v>2231</v>
+        <v>970</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>K1266-1bl-black</t>
+          <t>FA-7122-4x</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/7.jpg</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\006_image_K1266-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\7_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="F115" t="n">
-        <v>713</v>
+        <v>640</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>K1266-1bl-black</t>
+          <t>FA-7122-4x</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>8.jpg</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/8.jpg</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\3_image_K1266-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\8_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="F116" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>K1266-2bl-black</t>
+          <t>FA-7122-4x</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/FA-7122-4x/9.jpg</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\001_image_K1266-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\FA-7122-4x\9_image_FA-7122-4x.jpg</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>679</v>
+        <v>640</v>
       </c>
       <c r="F117" t="n">
-        <v>729</v>
+        <v>640</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>K1266-2bl-black</t>
+          <t>JD7348A</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3714,25 +3714,25 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/2.jpg</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\002_image_K1266-2bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\002_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>638</v>
+        <v>786</v>
       </c>
       <c r="F118" t="n">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>K1266-2bl-black</t>
+          <t>JD7348A</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3742,53 +3742,53 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/3.jpg</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\003_image_K1266-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\003_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>800</v>
+        <v>692</v>
       </c>
       <c r="F119" t="n">
-        <v>800</v>
+        <v>783</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>K1266-2bl-black</t>
+          <t>JD7348A</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/5.jpg</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\006_image_K1266-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\005_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>673</v>
+        <v>846</v>
       </c>
       <c r="F120" t="n">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>K1266-2bl-black</t>
+          <t>JD7348A</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3798,137 +3798,137 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/4.jpg</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\4_image_K1266-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\4_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E121" t="n">
         <v>501</v>
       </c>
       <c r="F121" t="n">
-        <v>2406</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>K1426f-black</t>
+          <t>JD7348A</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1426f-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/6.jpg</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\001_image_K1426f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\6_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>882</v>
+        <v>859</v>
       </c>
       <c r="F122" t="n">
-        <v>501</v>
+        <v>652</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>K1426f-black</t>
+          <t>JD7348A</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>7.jpg</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1426f-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/7.jpg</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\002_image_K1426f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\7_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1220</v>
+        <v>970</v>
       </c>
       <c r="F123" t="n">
-        <v>501</v>
+        <v>970</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>K1426f-black</t>
+          <t>JD7348A</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>9.jpg</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1426f-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/JD7348A/9.jpg</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\005_image_K1426f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\JD7348A\9_image_JD7348A.jpg</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>800</v>
+        <v>1129</v>
       </c>
       <c r="F124" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>K1426f-black</t>
+          <t>K1266-1bl-black</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1426f-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\4_image_K1426f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\001_image_K1266-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>800</v>
+        <v>715</v>
       </c>
       <c r="F125" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>K1428f-black</t>
+          <t>K1266-1bl-black</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3938,324 +3938,324 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1428f-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\002_image_K1428f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\002_image_K1266-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>893</v>
+        <v>599</v>
       </c>
       <c r="F126" t="n">
-        <v>501</v>
+        <v>710</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>K1428f-black</t>
+          <t>K1266-1bl-black</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1428f-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\003_image_K1428f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\002_image_K1266-1bl-black.png</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1214</v>
+        <v>599</v>
       </c>
       <c r="F127" t="n">
-        <v>501</v>
+        <v>710</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>K1428f-black</t>
+          <t>K1266-1bl-black</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1428f-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\005_image_K1428f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\004_image_K1266-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
       <c r="F128" t="n">
-        <v>800</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>K1428f-black</t>
+          <t>K1266-1bl-black</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K1428f-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\4_image_K1428f-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\006_image_K1266-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>800</v>
+        <v>627</v>
       </c>
       <c r="F129" t="n">
-        <v>800</v>
+        <v>713</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>K166030bl-black</t>
+          <t>K1266-1bl-black</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-1bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\001_image_K166030bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-1bl-black\3_image_K1266-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>737</v>
+        <v>800</v>
       </c>
       <c r="F130" t="n">
-        <v>581</v>
+        <v>800</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>K166030bl-black</t>
+          <t>K1266-2bl-black</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\002_image_K166030bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\001_image_K1266-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>730</v>
+        <v>679</v>
       </c>
       <c r="F131" t="n">
-        <v>515</v>
+        <v>729</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>K166030bl-black</t>
+          <t>K1266-2bl-black</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\004_image_K166030bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\002_image_K1266-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>800</v>
+        <v>638</v>
       </c>
       <c r="F132" t="n">
-        <v>800</v>
+        <v>705</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>K166030bl-black</t>
+          <t>K1266-2bl-black</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\005_image_K166030bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\002_image_K1266-2bl-black.png</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>501</v>
+        <v>638</v>
       </c>
       <c r="F133" t="n">
-        <v>733</v>
+        <v>705</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>K166030bl-black</t>
+          <t>K1266-2bl-black</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\006_image_K166030bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\003_image_K1266-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>729</v>
+        <v>800</v>
       </c>
       <c r="F134" t="n">
-        <v>529</v>
+        <v>800</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>K166317bl-black</t>
+          <t>K1266-2bl-black</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\002_image_K166317bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\006_image_K1266-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>811</v>
+        <v>673</v>
       </c>
       <c r="F135" t="n">
-        <v>501</v>
+        <v>710</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>K166317bl-black</t>
+          <t>K1266-2bl-black</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1266-2bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\003_image_K166317bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1266-2bl-black\4_image_K1266-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>738</v>
+        <v>501</v>
       </c>
       <c r="F136" t="n">
-        <v>539</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>K166317bl-black</t>
+          <t>K1426f-black</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1426f-black/1.jpg</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\004_image_K166317bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\001_image_K1426f-black.jpg</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="F137" t="n">
         <v>501</v>
@@ -4264,287 +4264,287 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>K166317bl-black</t>
+          <t>K1426f-black</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1426f-black/2.jpg</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\005_image_K166317bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\002_image_K1426f-black.jpg</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>800</v>
+        <v>1220</v>
       </c>
       <c r="F138" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>K166365bl-black</t>
+          <t>K1426f-black</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1426f-black/5.jpg</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\001_image_K166365bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\005_image_K1426f-black.jpg</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F139" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>K166365bl-black</t>
+          <t>K1426f-black</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1426f-black/4.jpg</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\002_image_K166365bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1426f-black\4_image_K1426f-black.jpg</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>669</v>
+        <v>800</v>
       </c>
       <c r="F140" t="n">
-        <v>709</v>
+        <v>800</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>K166365bl-black</t>
+          <t>K1428f-black</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1428f-black/2.jpg</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\003_image_K166365bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\002_image_K1428f-black.jpg</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>702</v>
+        <v>893</v>
       </c>
       <c r="F141" t="n">
-        <v>712</v>
+        <v>501</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>K166365bl-black</t>
+          <t>K1428f-black</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1428f-black/3.jpg</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\006_image_K166365bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\003_image_K1428f-black.jpg</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>800</v>
+        <v>1214</v>
       </c>
       <c r="F142" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>K166365bl-black</t>
+          <t>K1428f-black</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1428f-black/5.jpg</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\4_image_K166365bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\005_image_K1428f-black.jpg</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>510</v>
+        <v>800</v>
       </c>
       <c r="F143" t="n">
-        <v>1763</v>
+        <v>800</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>K16685-1bl-black</t>
+          <t>K1428f-black</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K1428f-black/4.jpg</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\001_image_K16685-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K1428f-black\4_image_K1428f-black.jpg</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>644</v>
+        <v>800</v>
       </c>
       <c r="F144" t="n">
-        <v>719</v>
+        <v>800</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>K16685-1bl-black</t>
+          <t>K166030bl-black</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\002_image_K16685-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\001_image_K166030bl-black.jpg</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>640</v>
+        <v>737</v>
       </c>
       <c r="F145" t="n">
-        <v>710</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>K16685-1bl-black</t>
+          <t>K166030bl-black</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\003_image_K16685-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\001_image_K166030bl-black.png</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>638</v>
+        <v>737</v>
       </c>
       <c r="F146" t="n">
-        <v>721</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>K16685-1bl-black</t>
+          <t>K166030bl-black</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\006_image_K16685-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\002_image_K166030bl-black.jpg</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>501</v>
+        <v>730</v>
       </c>
       <c r="F147" t="n">
-        <v>1163</v>
+        <v>515</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>K16685-1bl-black</t>
+          <t>K166030bl-black</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4554,12 +4554,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\4_image_K16685-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\004_image_K166030bl-black.jpg</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -4572,511 +4572,511 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>K16685-3bl-black</t>
+          <t>K166030bl-black</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\001_image_K16685-3bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\005_image_K166030bl-black.jpg</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>623</v>
+        <v>501</v>
       </c>
       <c r="F149" t="n">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>K16685-3bl-black</t>
+          <t>K166030bl-black</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166030bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\002_image_K16685-3bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166030bl-black\006_image_K166030bl-black.jpg</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>612</v>
+        <v>729</v>
       </c>
       <c r="F150" t="n">
-        <v>716</v>
+        <v>529</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>K16685-3bl-black</t>
+          <t>K166317bl-black</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\003_image_K16685-3bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\002_image_K166317bl-black.jpg</t>
         </is>
       </c>
       <c r="E151" t="n">
+        <v>811</v>
+      </c>
+      <c r="F151" t="n">
         <v>501</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1404</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>K16685-3bl-black</t>
+          <t>K166317bl-black</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\004_image_K16685-3bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\003_image_K166317bl-black.jpg</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>583</v>
+        <v>738</v>
       </c>
       <c r="F152" t="n">
-        <v>717</v>
+        <v>539</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>K16685-3bl-black</t>
+          <t>K166317bl-black</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\5_image_K16685-3bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\004_image_K166317bl-black.jpg</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>800</v>
+        <v>891</v>
       </c>
       <c r="F153" t="n">
-        <v>800</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>K19803-1bl-black</t>
+          <t>K166317bl-black</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>5.jpg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166317bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\001_image_K19803-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166317bl-black\005_image_K166317bl-black.jpg</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>678</v>
+        <v>800</v>
       </c>
       <c r="F154" t="n">
-        <v>719</v>
+        <v>800</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>K19803-1bl-black</t>
+          <t>K166365bl-black</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\002_image_K19803-1bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\001_image_K166365bl-black.jpg</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>639</v>
+        <v>700</v>
       </c>
       <c r="F155" t="n">
-        <v>711</v>
+        <v>720</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>K19803-1bl-black</t>
+          <t>K166365bl-black</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\003_image_K19803-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\002_image_K166365bl-black.jpg</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>501</v>
+        <v>669</v>
       </c>
       <c r="F156" t="n">
-        <v>1570</v>
+        <v>709</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>K19803-1bl-black</t>
+          <t>K166365bl-black</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\004_image_K19803-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\002_image_K166365bl-black.png</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>738</v>
+        <v>669</v>
       </c>
       <c r="F157" t="n">
-        <v>693</v>
+        <v>709</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>K19803-1bl-black</t>
+          <t>K166365bl-black</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\006_image_K19803-1bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\003_image_K166365bl-black.jpg</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>800</v>
+        <v>702</v>
       </c>
       <c r="F158" t="n">
-        <v>800</v>
+        <v>712</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>K19803-1br-brown</t>
+          <t>K166365bl-black</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\001_image_K19803-1br-brown.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\006_image_K166365bl-black.jpg</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>682</v>
+        <v>800</v>
       </c>
       <c r="F159" t="n">
-        <v>721</v>
+        <v>800</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>K19803-1br-brown</t>
+          <t>K166365bl-black</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\002_image_K19803-1br-brown.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\4_image_K166365bl-black.jpg</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>642</v>
+        <v>510</v>
       </c>
       <c r="F160" t="n">
-        <v>712</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>K19803-1br-brown</t>
+          <t>K166365bl-black</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K166365bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\003_image_K19803-1br-brown.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K166365bl-black\4_image_K166365bl-black.png</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>676</v>
+        <v>510</v>
       </c>
       <c r="F161" t="n">
-        <v>714</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>K19803-1br-brown</t>
+          <t>K16685-1bl-black</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\006_image_K19803-1br-brown.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\001_image_K16685-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>800</v>
+        <v>644</v>
       </c>
       <c r="F162" t="n">
-        <v>800</v>
+        <v>719</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>K19803-1br-brown</t>
+          <t>K16685-1bl-black</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\4_image_K19803-1br-brown.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\002_image_K16685-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>501</v>
+        <v>640</v>
       </c>
       <c r="F163" t="n">
-        <v>1904</v>
+        <v>710</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>K19803-2bl-black</t>
+          <t>K16685-1bl-black</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\001_image_K19803-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\002_image_K16685-1bl-black.png</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>688</v>
+        <v>640</v>
       </c>
       <c r="F164" t="n">
-        <v>727</v>
+        <v>710</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>K19803-2bl-black</t>
+          <t>K16685-1bl-black</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\002_image_K19803-2bl-black.png</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\003_image_K16685-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>514</v>
+        <v>638</v>
       </c>
       <c r="F165" t="n">
-        <v>711</v>
+        <v>721</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>K19803-2bl-black</t>
+          <t>K16685-1bl-black</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\003_image_K19803-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\006_image_K16685-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>657</v>
+        <v>501</v>
       </c>
       <c r="F166" t="n">
-        <v>708</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>K19803-2bl-black</t>
+          <t>K16685-1bl-black</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5086,12 +5086,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-1bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\004_image_K19803-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-1bl-black\4_image_K16685-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -5104,63 +5104,63 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>K19803-2bl-black</t>
+          <t>K16685-3bl-black</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\006_image_K19803-2bl-black.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\001_image_K16685-3bl-black.jpg</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>501</v>
+        <v>623</v>
       </c>
       <c r="F168" t="n">
-        <v>2081</v>
+        <v>718</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>LB105 GRY</t>
+          <t>K16685-3bl-black</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/1.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\001_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\002_image_K16685-3bl-black.jpg</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1000</v>
+        <v>612</v>
       </c>
       <c r="F169" t="n">
-        <v>1000</v>
+        <v>716</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>LB105 GRY</t>
+          <t>K16685-3bl-black</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5170,25 +5170,25 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\002_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\002_image_K16685-3bl-black.png</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>860</v>
+        <v>612</v>
       </c>
       <c r="F170" t="n">
-        <v>672</v>
+        <v>716</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>LB105 GRY</t>
+          <t>K16685-3bl-black</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5198,25 +5198,25 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\003_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\003_image_K16685-3bl-black.jpg</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>878</v>
+        <v>501</v>
       </c>
       <c r="F171" t="n">
-        <v>608</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>LB105 GRY</t>
+          <t>K16685-3bl-black</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5226,25 +5226,25 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\4_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\004_image_K16685-3bl-black.jpg</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="F172" t="n">
-        <v>831</v>
+        <v>717</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>LB105 GRY</t>
+          <t>K16685-3bl-black</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5254,81 +5254,81 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K16685-3bl-black/5.jpg</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\5_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K16685-3bl-black\5_image_K16685-3bl-black.jpg</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>868</v>
+        <v>800</v>
       </c>
       <c r="F173" t="n">
-        <v>620</v>
+        <v>800</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LB105 GRY</t>
+          <t>K19803-1bl-black</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\6_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\001_image_K19803-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>857</v>
+        <v>678</v>
       </c>
       <c r="F174" t="n">
-        <v>783</v>
+        <v>719</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LB105 GRY</t>
+          <t>K19803-1bl-black</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\7_image_LB105 GRY.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\002_image_K19803-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1000</v>
+        <v>639</v>
       </c>
       <c r="F175" t="n">
-        <v>1000</v>
+        <v>711</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>LBJX010013</t>
+          <t>K19803-1bl-black</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5338,25 +5338,25 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LBJX010013/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\002_image_LBJX010013.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\002_image_K19803-1bl-black.png</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="F176" t="n">
-        <v>510</v>
+        <v>711</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>LBJX010013</t>
+          <t>K19803-1bl-black</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5366,53 +5366,53 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LBJX010013/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\003_image_LBJX010013.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\003_image_K19803-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1300</v>
+        <v>501</v>
       </c>
       <c r="F177" t="n">
-        <v>1300</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LBJX010013</t>
+          <t>K19803-1bl-black</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LBJX010013/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\005_image_LBJX010013.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\004_image_K19803-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="F178" t="n">
-        <v>600</v>
+        <v>693</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>LBJX010013</t>
+          <t>K19803-1bl-black</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5422,53 +5422,53 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LBJX010013/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1bl-black/6.jpg</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\006_image_LBJX010013.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1bl-black\006_image_K19803-1bl-black.jpg</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1065</v>
+        <v>800</v>
       </c>
       <c r="F179" t="n">
-        <v>587</v>
+        <v>800</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>LBJX010013</t>
+          <t>K19803-1br-brown</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/LBJX010013/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/1.jpg</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\4_image_LBJX010013.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\001_image_K19803-1br-brown.jpg</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>987</v>
+        <v>682</v>
       </c>
       <c r="F180" t="n">
-        <v>1100</v>
+        <v>721</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RE-3079-3md</t>
+          <t>K19803-1br-brown</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5478,298 +5478,942 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/2.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/2.jpg</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\002_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\002_image_K19803-1br-brown.jpg</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1282</v>
+        <v>642</v>
       </c>
       <c r="F181" t="n">
-        <v>501</v>
+        <v>712</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RE-3079-3md</t>
+          <t>K19803-1br-brown</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>4.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/4.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/2.jpg</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\004_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\002_image_K19803-1br-brown.png</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>957</v>
+        <v>642</v>
       </c>
       <c r="F182" t="n">
-        <v>528</v>
+        <v>712</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RE-3079-3md</t>
+          <t>K19803-1br-brown</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>11.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/11.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/3.jpg</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\011_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\003_image_K19803-1br-brown.jpg</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="F183" t="n">
-        <v>745</v>
+        <v>714</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RE-3079-3md</t>
+          <t>K19803-1br-brown</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>10.jpg</t>
+          <t>6.jpg</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/10.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/6.jpg</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\10_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\006_image_K19803-1br-brown.jpg</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>970</v>
+        <v>800</v>
       </c>
       <c r="F184" t="n">
-        <v>970</v>
+        <v>800</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RE-3079-3md</t>
+          <t>K19803-1br-brown</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>3.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/3.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-1br-brown/4.jpg</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\3_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-1br-brown\4_image_K19803-1br-brown.jpg</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1059</v>
+        <v>501</v>
       </c>
       <c r="F185" t="n">
-        <v>501</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RE-3079-3md</t>
+          <t>K19803-2bl-black</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>5.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/5.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/1.jpg</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\5_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\001_image_K19803-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>799</v>
+        <v>688</v>
       </c>
       <c r="F186" t="n">
-        <v>845</v>
+        <v>727</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RE-3079-3md</t>
+          <t>K19803-2bl-black</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>6.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/6.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\6_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\002_image_K19803-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>927</v>
+        <v>514</v>
       </c>
       <c r="F187" t="n">
-        <v>746</v>
+        <v>711</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RE-3079-3md</t>
+          <t>K19803-2bl-black</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>7.jpg</t>
+          <t>2.jpg</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/7.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/2.jpg</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\7_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\002_image_K19803-2bl-black.png</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>981</v>
+        <v>514</v>
       </c>
       <c r="F188" t="n">
-        <v>501</v>
+        <v>711</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RE-3079-3md</t>
+          <t>K19803-2bl-black</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>8.jpg</t>
+          <t>3.jpg</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/8.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/3.jpg</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\8_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\003_image_K19803-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F189" t="n">
-        <v>929</v>
+        <v>708</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RE-3079-3md</t>
+          <t>K19803-2bl-black</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>9.jpg</t>
+          <t>4.jpg</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/9.jpg</t>
+          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/4.jpg</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\9_image_RE-3079-3md.jpg</t>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\004_image_K19803-2bl-black.jpg</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>856</v>
+        <v>800</v>
       </c>
       <c r="F190" t="n">
-        <v>955</v>
+        <v>800</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>K19803-2bl-black</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/K19803-2bl-black/6.jpg</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\K19803-2bl-black\006_image_K19803-2bl-black.jpg</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>501</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>LB105 GRY</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1.jpg</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/1.jpg</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\001_image_LB105 GRY.jpg</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>LB105 GRY</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2.jpg</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/2.jpg</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\002_image_LB105 GRY.jpg</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>860</v>
+      </c>
+      <c r="F193" t="n">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>LB105 GRY</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/3.jpg</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\003_image_LB105 GRY.jpg</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>878</v>
+      </c>
+      <c r="F194" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>LB105 GRY</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>4.jpg</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/4.jpg</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\4_image_LB105 GRY.jpg</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>605</v>
+      </c>
+      <c r="F195" t="n">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>LB105 GRY</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/5.jpg</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\5_image_LB105 GRY.jpg</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>868</v>
+      </c>
+      <c r="F196" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>LB105 GRY</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/6.jpg</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\6_image_LB105 GRY.jpg</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>857</v>
+      </c>
+      <c r="F197" t="n">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>LB105 GRY</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>7.jpg</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LB105 GRY/7.jpg</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LB105 GRY\7_image_LB105 GRY.jpg</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>LBJX010013</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2.jpg</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LBJX010013/2.jpg</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\002_image_LBJX010013.jpg</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>653</v>
+      </c>
+      <c r="F199" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>LBJX010013</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LBJX010013/3.jpg</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\003_image_LBJX010013.jpg</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>LBJX010013</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LBJX010013/5.jpg</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\005_image_LBJX010013.jpg</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>600</v>
+      </c>
+      <c r="F201" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>LBJX010013</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LBJX010013/6.jpg</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\006_image_LBJX010013.jpg</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1065</v>
+      </c>
+      <c r="F202" t="n">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>LBJX010013</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>4.jpg</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/LBJX010013/4.jpg</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\LBJX010013\4_image_LBJX010013.jpg</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>987</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>RE-3079-3md</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2.jpg</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/2.jpg</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\002_image_RE-3079-3md.jpg</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>1282</v>
+      </c>
+      <c r="F204" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>RE-3079-3md</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>4.jpg</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/4.jpg</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\004_image_RE-3079-3md.jpg</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>957</v>
+      </c>
+      <c r="F205" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>RE-3079-3md</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>11.jpg</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/11.jpg</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\011_image_RE-3079-3md.jpg</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>963</v>
+      </c>
+      <c r="F206" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>RE-3079-3md</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>10.jpg</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/10.jpg</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\10_image_RE-3079-3md.jpg</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>970</v>
+      </c>
+      <c r="F207" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>RE-3079-3md</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>3.jpg</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/3.jpg</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\3_image_RE-3079-3md.jpg</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F208" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>RE-3079-3md</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/5.jpg</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\5_image_RE-3079-3md.jpg</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>799</v>
+      </c>
+      <c r="F209" t="n">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>RE-3079-3md</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/6.jpg</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\6_image_RE-3079-3md.jpg</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>927</v>
+      </c>
+      <c r="F210" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>RE-3079-3md</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>7.jpg</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/7.jpg</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\7_image_RE-3079-3md.jpg</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>981</v>
+      </c>
+      <c r="F211" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>RE-3079-3md</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>8.jpg</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/8.jpg</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\8_image_RE-3079-3md.jpg</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>656</v>
+      </c>
+      <c r="F212" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>RE-3079-3md</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>9.jpg</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://oleks-netizen.github.io/product-images/RE-3079-3md/9.jpg</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>C:/Users/Asus/Desktop/12 — копия\RE-3079-3md\9_image_RE-3079-3md.jpg</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>856</v>
+      </c>
+      <c r="F213" t="n">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
           <t>RH-1811-4lx</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>1.jpg</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>https://oleks-netizen.github.io/product-images/RH-1811-4lx/1.jpg</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>C:/Users/Asus/Desktop/12 — копия\RH-1811-4lx\1_image_RH-1811-4lx.jpg</t>
         </is>
       </c>
-      <c r="E191" t="n">
+      <c r="E214" t="n">
         <v>754</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F214" t="n">
         <v>777</v>
       </c>
     </row>
